--- a/output/fit_clients/fit_round_32.xlsx
+++ b/output/fit_clients/fit_round_32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,24 +441,24 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>splitLayer</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>dataSize</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>frequency</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>computation</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>transPower</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>updateTime</t>
-        </is>
-      </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>isSelected</t>
@@ -466,37 +466,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>C</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>sigma</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_mu</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_U</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>g</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>UCB_omega</t>
         </is>
       </c>
     </row>
@@ -510,40 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>537</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3774986777.133273</v>
+        <v>502</v>
       </c>
       <c r="E2" t="n">
-        <v>0.002328856375017683</v>
+        <v>6395662865.830317</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3726138694102082</v>
+        <v>0.003726916582112072</v>
       </c>
       <c r="G2" t="b">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="I2" t="n">
-        <v>8</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.5059254371431372</v>
-      </c>
-      <c r="L2" t="n">
-        <v>3.522141070159</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.9300672657529839</v>
-      </c>
-      <c r="N2" t="n">
-        <v>-3.522141070159</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -556,40 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6614434859.423958</v>
+        <v>542</v>
       </c>
       <c r="E3" t="n">
-        <v>0.001601023866104471</v>
+        <v>5410381604.274648</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2003816453210076</v>
+        <v>0.003932946327837802</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.1576475125433262</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.972892038358002</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.9457308369067221</v>
-      </c>
-      <c r="N3" t="n">
-        <v>-3.972892038358002</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -602,40 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>7057299520.002787</v>
+        <v>534</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00475458632877329</v>
+        <v>6487915700.180122</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1918899185391901</v>
+        <v>0.002705362706659139</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="I4" t="n">
-        <v>3</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.08095880241821393</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.1404760395772202</v>
-      </c>
-      <c r="L4" t="n">
-        <v>5.065935542973638</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.2885744358402432</v>
-      </c>
-      <c r="N4" t="n">
-        <v>-5.065935542973638</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -648,40 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>457</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>4388248950.685743</v>
+        <v>494</v>
       </c>
       <c r="E5" t="n">
-        <v>0.004468194274220615</v>
+        <v>3523291925.278903</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2727879032052039</v>
+        <v>0.004203378494674832</v>
       </c>
       <c r="G5" t="b">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="I5" t="n">
-        <v>10</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.9095149655347867</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.304063210054648</v>
-      </c>
-      <c r="L5" t="n">
-        <v>3.001848486143059</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1.202268720193354</v>
-      </c>
-      <c r="N5" t="n">
-        <v>-3.001848486143059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -694,40 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>503</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>5158759218.929073</v>
+        <v>469</v>
       </c>
       <c r="E6" t="n">
-        <v>0.002674626227876958</v>
+        <v>7416084501.28158</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2554011757644149</v>
+        <v>0.002641071449166963</v>
       </c>
       <c r="G6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2689047872874635</v>
-      </c>
-      <c r="I6" t="n">
-        <v>11</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.2689047872874636</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.841142121855356</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0.837064887131414</v>
-      </c>
-      <c r="N6" t="n">
-        <v>-2.841142121855356</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -740,40 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>512</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>6782530685.600801</v>
+        <v>539</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004046256931989904</v>
+        <v>7939275422.339061</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1977326372952785</v>
+        <v>0.0009712736108668004</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.1522908435324719</v>
-      </c>
-      <c r="L7" t="n">
-        <v>4.417863898785256</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0.9685634708640489</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-4.417863898785256</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -786,40 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>507</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>7911290988.484811</v>
+        <v>513</v>
       </c>
       <c r="E8" t="n">
-        <v>0.001124098464773324</v>
+        <v>7150592180.856551</v>
       </c>
       <c r="F8" t="n">
-        <v>0.167865236145782</v>
+        <v>0.00325635466956509</v>
       </c>
       <c r="G8" t="b">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.09189473275502938</v>
-      </c>
-      <c r="L8" t="n">
-        <v>4.357467788007813</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0.9631890846275251</v>
-      </c>
-      <c r="N8" t="n">
-        <v>-4.357467788007813</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -832,40 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>467</v>
+        <v>6</v>
       </c>
       <c r="D9" t="n">
-        <v>8275485145.129385</v>
+        <v>569</v>
       </c>
       <c r="E9" t="n">
-        <v>0.001160298933765199</v>
+        <v>5318666946.01023</v>
       </c>
       <c r="F9" t="n">
-        <v>0.147816727182449</v>
+        <v>0.004151280161948736</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="I9" t="n">
-        <v>2</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.05135381115923064</v>
-      </c>
-      <c r="L9" t="n">
-        <v>6.083785077190956</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0.9524585754628809</v>
-      </c>
-      <c r="N9" t="n">
-        <v>-6.083785077190956</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -878,40 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>532</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>7013801834.255452</v>
+        <v>529</v>
       </c>
       <c r="E10" t="n">
-        <v>0.002857293985944274</v>
+        <v>3329368134.881958</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1986819007623029</v>
+        <v>0.00572973769106283</v>
       </c>
       <c r="G10" t="b">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="I10" t="n">
-        <v>8</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.05857316630364574</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.1542103885650115</v>
-      </c>
-      <c r="L10" t="n">
-        <v>3.170426021580874</v>
-      </c>
-      <c r="M10" t="n">
-        <v>-0.3438131207940499</v>
-      </c>
-      <c r="N10" t="n">
-        <v>-3.170426021580874</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -924,40 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>413</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>5818186551.41062</v>
+        <v>582</v>
       </c>
       <c r="E11" t="n">
-        <v>0.002615823055307827</v>
+        <v>4863510190.495385</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1859356107682239</v>
+        <v>0.001417275251686977</v>
       </c>
       <c r="G11" t="b">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1284355868462225</v>
-      </c>
-      <c r="I11" t="n">
-        <v>9</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.1284355868462226</v>
-      </c>
-      <c r="L11" t="n">
-        <v>2.972150957014745</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0.759145511104071</v>
-      </c>
-      <c r="N11" t="n">
-        <v>-2.972150957014745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -970,40 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>555</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5619512611.38813</v>
+        <v>537</v>
       </c>
       <c r="E12" t="n">
-        <v>0.00268072866557397</v>
+        <v>8650696377.713543</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2586988499774703</v>
+        <v>0.001530911110132913</v>
       </c>
       <c r="G12" t="b">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0.2755731511026717</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4.090817676917347</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0.9980732751020862</v>
-      </c>
-      <c r="N12" t="n">
-        <v>-4.090817676917347</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1016,40 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>623</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>8265963767.339729</v>
+        <v>480</v>
       </c>
       <c r="E13" t="n">
-        <v>0.002623951272544145</v>
+        <v>6692193599.792449</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1974216214747812</v>
+        <v>0.003699583535725611</v>
       </c>
       <c r="G13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="I13" t="n">
-        <v>9</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.1516619255407699</v>
-      </c>
-      <c r="L13" t="n">
-        <v>2.995377295709293</v>
-      </c>
-      <c r="M13" t="n">
-        <v>1.006153690837943</v>
-      </c>
-      <c r="N13" t="n">
-        <v>-2.995377295709293</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -1062,40 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>472</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>5928203131.174623</v>
+        <v>486</v>
       </c>
       <c r="E14" t="n">
-        <v>0.001542642043342661</v>
+        <v>7806341120.430606</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2085542706015587</v>
+        <v>0.003435926405502923</v>
       </c>
       <c r="G14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="I14" t="n">
         <v>7</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.1741737171272498</v>
-      </c>
-      <c r="L14" t="n">
-        <v>3.398643860949205</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0.872530413406538</v>
-      </c>
-      <c r="N14" t="n">
-        <v>-3.398643860949205</v>
       </c>
     </row>
     <row r="15">
@@ -1108,40 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>554</v>
+        <v>6</v>
       </c>
       <c r="D15" t="n">
-        <v>4243790845.786891</v>
+        <v>538</v>
       </c>
       <c r="E15" t="n">
-        <v>0.004965350667070036</v>
+        <v>5208272357.611649</v>
       </c>
       <c r="F15" t="n">
-        <v>0.3419447641819225</v>
+        <v>0.004408710495389047</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="I15" t="n">
-        <v>8</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.1374528375178042</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.4439081672929345</v>
-      </c>
-      <c r="L15" t="n">
-        <v>3.460123800308797</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0.2684498457638859</v>
-      </c>
-      <c r="N15" t="n">
-        <v>-3.460123800308797</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1154,40 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>488</v>
+        <v>1</v>
       </c>
       <c r="D16" t="n">
-        <v>5171080259.722651</v>
+        <v>569</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00167100299863924</v>
+        <v>7684764479.223347</v>
       </c>
       <c r="F16" t="n">
-        <v>0.2471944459954213</v>
+        <v>0.004383787991698704</v>
       </c>
       <c r="G16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="I16" t="n">
-        <v>6</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2523096186027912</v>
-      </c>
-      <c r="L16" t="n">
-        <v>3.735135433914123</v>
-      </c>
-      <c r="M16" t="n">
-        <v>0.908725300752937</v>
-      </c>
-      <c r="N16" t="n">
-        <v>-3.735135433914123</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
@@ -1200,40 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>508</v>
+        <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>7685931331.203353</v>
+        <v>462</v>
       </c>
       <c r="E17" t="n">
-        <v>0.004381541380359111</v>
+        <v>4604303543.614305</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1731280260855083</v>
+        <v>0.003099132710992835</v>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.1025368385950107</v>
-      </c>
-      <c r="L17" t="n">
-        <v>4.368109893847794</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0.9642663582304065</v>
-      </c>
-      <c r="N17" t="n">
-        <v>-4.368109893847794</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18">
@@ -1246,40 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>497</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>6872541171.616985</v>
+        <v>536</v>
       </c>
       <c r="E18" t="n">
-        <v>0.00116419486842914</v>
+        <v>6112920307.403223</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1894258320890788</v>
+        <v>0.001208515870375822</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="I18" t="n">
-        <v>1</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.1354933081550515</v>
-      </c>
-      <c r="L18" t="n">
-        <v>8.666639418660619</v>
-      </c>
-      <c r="M18" t="n">
-        <v>1.000359557385444</v>
-      </c>
-      <c r="N18" t="n">
-        <v>-8.666639418660619</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19">
@@ -1292,40 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>502</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
-        <v>6085072935.90115</v>
+        <v>512</v>
       </c>
       <c r="E19" t="n">
-        <v>0.001217401097988846</v>
+        <v>4110837997.347777</v>
       </c>
       <c r="F19" t="n">
-        <v>0.216091704052068</v>
+        <v>0.002380336512355696</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.189415473963607</v>
-      </c>
-      <c r="L19" t="n">
-        <v>2.887200750052018</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0.8543133081013113</v>
-      </c>
-      <c r="N19" t="n">
-        <v>-2.887200750052018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1338,40 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>406</v>
+        <v>6</v>
       </c>
       <c r="D20" t="n">
-        <v>5842947484.476484</v>
+        <v>508</v>
       </c>
       <c r="E20" t="n">
-        <v>0.002702245428946161</v>
+        <v>3851058777.588971</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1820095667170428</v>
+        <v>0.001152641893352034</v>
       </c>
       <c r="G20" t="b">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.1204965703162807</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.1204965703162808</v>
-      </c>
-      <c r="L20" t="n">
-        <v>3.935741096130957</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0.8287141418753611</v>
-      </c>
-      <c r="N20" t="n">
-        <v>-3.935741096130957</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21">
@@ -1384,40 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D21" t="n">
-        <v>4118902707.420316</v>
+        <v>440</v>
       </c>
       <c r="E21" t="n">
-        <v>0.003495120266565044</v>
+        <v>6459339575.830479</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2950778511496349</v>
+        <v>0.003934955220858725</v>
       </c>
       <c r="G21" t="b">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="I21" t="n">
-        <v>9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.349136638390008</v>
-      </c>
-      <c r="L21" t="n">
-        <v>3.192852008558531</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0.8259528723630777</v>
-      </c>
-      <c r="N21" t="n">
-        <v>-3.192852008558531</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22">
@@ -1430,40 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>421</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>4170796226.284842</v>
+        <v>441</v>
       </c>
       <c r="E22" t="n">
-        <v>0.001920615895399191</v>
+        <v>4093624218.663525</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2644011191556803</v>
+        <v>0.003688531975771938</v>
       </c>
       <c r="G22" t="b">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="I22" t="n">
-        <v>3</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2871039461405845</v>
-      </c>
-      <c r="L22" t="n">
-        <v>5.212563449537003</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0.8834099173000193</v>
-      </c>
-      <c r="N22" t="n">
-        <v>-5.212563449537003</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1476,40 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>489</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
-        <v>7073710656.462761</v>
+        <v>439</v>
       </c>
       <c r="E23" t="n">
-        <v>0.002005186979892943</v>
+        <v>7613784654.013403</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1810763504766408</v>
+        <v>0.001252209415216094</v>
       </c>
       <c r="G23" t="b">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.1186094750463404</v>
-      </c>
-      <c r="L23" t="n">
-        <v>2.690846809614232</v>
-      </c>
-      <c r="M23" t="n">
-        <v>1.313177376828427</v>
-      </c>
-      <c r="N23" t="n">
-        <v>-2.690846809614232</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24">
@@ -1522,40 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>561</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>5525064420.028789</v>
+        <v>513</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004629431951755945</v>
+        <v>7697815883.046721</v>
       </c>
       <c r="F24" t="n">
-        <v>0.2659657296796448</v>
+        <v>0.003804303636432226</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2902678099818315</v>
-      </c>
-      <c r="L24" t="n">
-        <v>4.105512335796508</v>
-      </c>
-      <c r="M24" t="n">
-        <v>1.00429509791143</v>
-      </c>
-      <c r="N24" t="n">
-        <v>-4.105512335796508</v>
+        <v>8</v>
       </c>
     </row>
     <row r="25">
@@ -1568,40 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>502</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>5413259802.605798</v>
+        <v>473</v>
       </c>
       <c r="E25" t="n">
-        <v>0.001173784140480929</v>
+        <v>6500997575.754399</v>
       </c>
       <c r="F25" t="n">
-        <v>0.2429097859605826</v>
+        <v>0.003328757875676254</v>
       </c>
       <c r="G25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="I25" t="n">
         <v>6</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2436454298167454</v>
-      </c>
-      <c r="L25" t="n">
-        <v>3.726471245128077</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0.9245816504771259</v>
-      </c>
-      <c r="N25" t="n">
-        <v>-3.726471245128077</v>
       </c>
     </row>
     <row r="26">
@@ -1614,40 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>440</v>
+        <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8878378545.372093</v>
+        <v>462</v>
       </c>
       <c r="E26" t="n">
-        <v>0.003343816849561506</v>
+        <v>5206612990.343722</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1298132980149584</v>
+        <v>0.0009948209931187522</v>
       </c>
       <c r="G26" t="b">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="I26" t="n">
-        <v>8</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0.01494833024942155</v>
-      </c>
-      <c r="L26" t="n">
-        <v>3.031163963265284</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.8146254492103233</v>
-      </c>
-      <c r="N26" t="n">
-        <v>-3.031163963265284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1660,40 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
-        <v>6054631295.600825</v>
+        <v>517</v>
       </c>
       <c r="E27" t="n">
-        <v>0.004693124232801393</v>
+        <v>7044850894.126143</v>
       </c>
       <c r="F27" t="n">
-        <v>0.2249654410813855</v>
+        <v>0.00388116035591997</v>
       </c>
       <c r="G27" t="b">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="I27" t="n">
-        <v>8</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0.2073594256971372</v>
-      </c>
-      <c r="L27" t="n">
-        <v>3.223575058713</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0.9108931726864459</v>
-      </c>
-      <c r="N27" t="n">
-        <v>-3.223575058713</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28">
@@ -1706,40 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>488</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>5647876142.162022</v>
+        <v>507</v>
       </c>
       <c r="E28" t="n">
-        <v>0.003842736873459637</v>
+        <v>8376316109.066282</v>
       </c>
       <c r="F28" t="n">
-        <v>0.2263261955158029</v>
+        <v>0.005030244966168674</v>
       </c>
       <c r="G28" t="b">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="I28" t="n">
-        <v>7</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0.21011106368367</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.434581207505625</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0.8913650611441509</v>
-      </c>
-      <c r="N28" t="n">
-        <v>-3.434581207505625</v>
+        <v>8</v>
       </c>
     </row>
     <row r="29">
@@ -1752,40 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>550</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>5434252017.002002</v>
+        <v>504</v>
       </c>
       <c r="E29" t="n">
-        <v>0.003512169427094836</v>
+        <v>6828996363.113831</v>
       </c>
       <c r="F29" t="n">
-        <v>0.2651081502095653</v>
+        <v>0.001101550906990723</v>
       </c>
       <c r="G29" t="b">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.1974649126247005</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0.2885336629626071</v>
-      </c>
-      <c r="L29" t="n">
-        <v>4.103778188777283</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0.5505349962640522</v>
-      </c>
-      <c r="N29" t="n">
-        <v>-4.103778188777283</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1798,40 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>483</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
-        <v>8499320839.705422</v>
+        <v>564</v>
       </c>
       <c r="E30" t="n">
-        <v>0.003553472151139161</v>
+        <v>8307648371.599123</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1488548783909479</v>
+        <v>0.003992917081957999</v>
       </c>
       <c r="G30" t="b">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="I30" t="n">
-        <v>8</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0.05345309978090874</v>
-      </c>
-      <c r="L30" t="n">
-        <v>3.069668732796771</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0.8676979243273043</v>
-      </c>
-      <c r="N30" t="n">
-        <v>-3.069668732796771</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1844,40 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>555</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>5830989036.590513</v>
+        <v>457</v>
       </c>
       <c r="E31" t="n">
-        <v>0.003502687500036464</v>
+        <v>5460619820.178626</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2493164437246209</v>
+        <v>0.003148339258668046</v>
       </c>
       <c r="G31" t="b">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="I31" t="n">
-        <v>7</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0.2566005982324126</v>
-      </c>
-      <c r="L31" t="n">
-        <v>3.481070742054368</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0.9662557955702024</v>
-      </c>
-      <c r="N31" t="n">
-        <v>-3.481070742054368</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32">
@@ -1890,40 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>516</v>
+        <v>6</v>
       </c>
       <c r="D32" t="n">
-        <v>3806884341.105919</v>
+        <v>574</v>
       </c>
       <c r="E32" t="n">
-        <v>0.002488747404637244</v>
+        <v>3774613880.451333</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3550423703199115</v>
+        <v>0.001200070585781661</v>
       </c>
       <c r="G32" t="b">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4703933799590733</v>
-      </c>
-      <c r="I32" t="n">
-        <v>6</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0.4703933799590732</v>
-      </c>
-      <c r="L32" t="n">
-        <v>3.953219195270405</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0.940170614606464</v>
-      </c>
-      <c r="N32" t="n">
-        <v>-3.953219195270405</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1936,40 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>426</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>4298435356.710087</v>
+        <v>470</v>
       </c>
       <c r="E33" t="n">
-        <v>0.004380269177921706</v>
+        <v>6255708266.777536</v>
       </c>
       <c r="F33" t="n">
-        <v>0.2595968177718627</v>
+        <v>0.003139143756692693</v>
       </c>
       <c r="G33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0.2773889690278148</v>
-      </c>
-      <c r="L33" t="n">
-        <v>4.092633494842491</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0.8534020543276368</v>
-      </c>
-      <c r="N33" t="n">
-        <v>-4.092633494842491</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
@@ -1982,40 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>368</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
-        <v>3372579813.752537</v>
+        <v>560</v>
       </c>
       <c r="E34" t="n">
-        <v>0.002693531213190146</v>
+        <v>8008261458.236835</v>
       </c>
       <c r="F34" t="n">
-        <v>0.2858154805022885</v>
+        <v>0.004626517433221249</v>
       </c>
       <c r="G34" t="b">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="I34" t="n">
-        <v>3</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0.3304068144967667</v>
-      </c>
-      <c r="L34" t="n">
-        <v>5.255866317893185</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0.8187576246423776</v>
-      </c>
-      <c r="N34" t="n">
-        <v>-5.255866317893185</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35">
@@ -2028,40 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>509</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>6346940715.691374</v>
+        <v>514</v>
       </c>
       <c r="E35" t="n">
-        <v>0.002968528451979102</v>
+        <v>5317230135.619516</v>
       </c>
       <c r="F35" t="n">
-        <v>0.2100649068146789</v>
+        <v>0.002679975910757598</v>
       </c>
       <c r="G35" t="b">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="I35" t="n">
-        <v>4</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0.1772284372756603</v>
-      </c>
-      <c r="L35" t="n">
-        <v>4.442801492528444</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0.9653424296508732</v>
-      </c>
-      <c r="N35" t="n">
-        <v>-4.442801492528444</v>
+        <v>8</v>
       </c>
     </row>
     <row r="36">
@@ -2074,40 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>589</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
-        <v>7298371993.110824</v>
+        <v>538</v>
       </c>
       <c r="E36" t="n">
-        <v>0.001780031013941675</v>
+        <v>5841505299.100378</v>
       </c>
       <c r="F36" t="n">
-        <v>0.211392446350545</v>
+        <v>0.003835228686313068</v>
       </c>
       <c r="G36" t="b">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="I36" t="n">
-        <v>6</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0.1799129100380637</v>
-      </c>
-      <c r="L36" t="n">
-        <v>3.662738725349395</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1.017594101805779</v>
-      </c>
-      <c r="N36" t="n">
-        <v>-3.662738725349395</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2120,40 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>600</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
-        <v>5259872171.049418</v>
+        <v>573</v>
       </c>
       <c r="E37" t="n">
-        <v>0.002908427406405509</v>
+        <v>5390404721.795745</v>
       </c>
       <c r="F37" t="n">
-        <v>0.2987969952293417</v>
+        <v>0.005598046928386516</v>
       </c>
       <c r="G37" t="b">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.356657273905329</v>
-      </c>
-      <c r="I37" t="n">
         <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0.3566572739053289</v>
-      </c>
-      <c r="L37" t="n">
-        <v>3.372872906921192</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0.997916891124926</v>
-      </c>
-      <c r="N37" t="n">
-        <v>-3.372872906921192</v>
       </c>
     </row>
     <row r="38">
@@ -2166,40 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>494</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>7496605945.036965</v>
+        <v>461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.00143927720525069</v>
+        <v>3570582427.562517</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1726086004102513</v>
+        <v>0.003164336445928658</v>
       </c>
       <c r="G38" t="b">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="I38" t="n">
-        <v>6</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0.101486486391066</v>
-      </c>
-      <c r="L38" t="n">
-        <v>3.584312301702397</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0.9155545059931933</v>
-      </c>
-      <c r="N38" t="n">
-        <v>-3.584312301702397</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2212,40 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>444</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
-        <v>3760683806.714372</v>
+        <v>470</v>
       </c>
       <c r="E39" t="n">
-        <v>0.001576353555582976</v>
+        <v>3931747025.891141</v>
       </c>
       <c r="F39" t="n">
-        <v>0.3092547046692808</v>
+        <v>0.002850703737733</v>
       </c>
       <c r="G39" t="b">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0.3778042419542554</v>
-      </c>
-      <c r="I39" t="n">
-        <v>6</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0.9299533825470927</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0.3778042419542555</v>
-      </c>
-      <c r="L39" t="n">
-        <v>3.860630057265587</v>
-      </c>
-      <c r="M39" t="n">
-        <v>1.248528434019202</v>
-      </c>
-      <c r="N39" t="n">
-        <v>-3.860630057265587</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40">
@@ -2258,40 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>563</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>4800759015.486515</v>
+        <v>523</v>
       </c>
       <c r="E40" t="n">
-        <v>0.003643763940889476</v>
+        <v>6886262258.872794</v>
       </c>
       <c r="F40" t="n">
-        <v>0.3071840442819124</v>
+        <v>0.004653698139570267</v>
       </c>
       <c r="G40" t="b">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.3736170736930465</v>
-      </c>
-      <c r="I40" t="n">
-        <v>6</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.3736170736930466</v>
-      </c>
-      <c r="L40" t="n">
-        <v>3.856442889004378</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0.9907125907282952</v>
-      </c>
-      <c r="N40" t="n">
-        <v>-3.856442889004378</v>
+        <v>9</v>
       </c>
     </row>
     <row r="41">
@@ -2304,40 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>496</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
-        <v>5814360010.920331</v>
+        <v>540</v>
       </c>
       <c r="E41" t="n">
-        <v>0.003441932960349784</v>
+        <v>6054444697.29635</v>
       </c>
       <c r="F41" t="n">
-        <v>0.2234497756519814</v>
+        <v>0.001205367672663925</v>
       </c>
       <c r="G41" t="b">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="I41" t="n">
-        <v>5</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0.204294535761865</v>
-      </c>
-      <c r="L41" t="n">
-        <v>4.019539061576541</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0.9346886364897573</v>
-      </c>
-      <c r="N41" t="n">
-        <v>-4.019539061576541</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42">
@@ -2350,40 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>559</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
-        <v>9009455758.474722</v>
+        <v>514</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004120430989197746</v>
+        <v>5728213809.54608</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1625224707522058</v>
+        <v>0.00442165000703311</v>
       </c>
       <c r="G42" t="b">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="I42" t="n">
-        <v>5</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0.08109090523240091</v>
-      </c>
-      <c r="L42" t="n">
-        <v>3.896335431047077</v>
-      </c>
-      <c r="M42" t="n">
-        <v>1.002225448664265</v>
-      </c>
-      <c r="N42" t="n">
-        <v>-3.896335431047077</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2396,40 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>503</v>
+        <v>6</v>
       </c>
       <c r="D43" t="n">
-        <v>4839685259.079359</v>
+        <v>493</v>
       </c>
       <c r="E43" t="n">
-        <v>0.001751323143399764</v>
+        <v>4914379579.29509</v>
       </c>
       <c r="F43" t="n">
-        <v>0.2722394328284552</v>
+        <v>0.00463599765757449</v>
       </c>
       <c r="G43" t="b">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="I43" t="n">
-        <v>6</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0.30295412535503</v>
-      </c>
-      <c r="L43" t="n">
-        <v>3.785779940666361</v>
-      </c>
-      <c r="M43" t="n">
-        <v>0.9257038539772463</v>
-      </c>
-      <c r="N43" t="n">
-        <v>-3.785779940666361</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44">
@@ -2442,40 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>535</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>5142818208.229213</v>
+        <v>523</v>
       </c>
       <c r="E44" t="n">
-        <v>0.002977863165484078</v>
+        <v>5858478072.199596</v>
       </c>
       <c r="F44" t="n">
-        <v>0.2724913837626246</v>
+        <v>0.001452104729593173</v>
       </c>
       <c r="G44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0.3034636057900505</v>
-      </c>
-      <c r="I44" t="n">
-        <v>8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0.1868366349972337</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0.3034636057900504</v>
-      </c>
-      <c r="L44" t="n">
-        <v>3.319679238805913</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0.4156469092337943</v>
-      </c>
-      <c r="N44" t="n">
-        <v>-3.319679238805913</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45">
@@ -2488,40 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>534</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>3963283408.268007</v>
+        <v>520</v>
       </c>
       <c r="E45" t="n">
-        <v>0.001192640398095167</v>
+        <v>5361203112.085996</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3529281446494559</v>
+        <v>0.001160127922313951</v>
       </c>
       <c r="G45" t="b">
         <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="I45" t="n">
-        <v>7</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0.4661181165318266</v>
-      </c>
-      <c r="L45" t="n">
-        <v>3.690588260353782</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0.9434224547980981</v>
-      </c>
-      <c r="N45" t="n">
-        <v>-3.690588260353782</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46">
@@ -2534,40 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>428</v>
+        <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>4971721447.376981</v>
+        <v>406</v>
       </c>
       <c r="E46" t="n">
-        <v>0.003654645328717432</v>
+        <v>11146659844.96452</v>
       </c>
       <c r="F46" t="n">
-        <v>0.225495119118445</v>
+        <v>0.00510829924956455</v>
       </c>
       <c r="G46" t="b">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="I46" t="n">
-        <v>8</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0.2084305096271551</v>
-      </c>
-      <c r="L46" t="n">
-        <v>3.224646142643018</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0.7991857481645128</v>
-      </c>
-      <c r="N46" t="n">
-        <v>-3.224646142643018</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47">
@@ -2580,40 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>484</v>
+        <v>6</v>
       </c>
       <c r="D47" t="n">
-        <v>7366426632.272665</v>
+        <v>368</v>
       </c>
       <c r="E47" t="n">
-        <v>0.004305234389428485</v>
+        <v>6776674438.161496</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1721030865149426</v>
+        <v>0.002819263411021065</v>
       </c>
       <c r="G47" t="b">
         <v>0</v>
       </c>
       <c r="H47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="I47" t="n">
-        <v>5</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.1004642657744218</v>
-      </c>
-      <c r="L47" t="n">
-        <v>3.915708791589098</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0.9212633091311262</v>
-      </c>
-      <c r="N47" t="n">
-        <v>-3.915708791589098</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48">
@@ -2626,40 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>506</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>5596692203.920995</v>
+        <v>431</v>
       </c>
       <c r="E48" t="n">
-        <v>0.001896823417889677</v>
+        <v>5228366011.428121</v>
       </c>
       <c r="F48" t="n">
-        <v>0.2368204810461844</v>
+        <v>0.003641552263051216</v>
       </c>
       <c r="G48" t="b">
         <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="I48" t="n">
-        <v>2</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.2313319937622725</v>
-      </c>
-      <c r="L48" t="n">
-        <v>6.263763259793998</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.9940607707158999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>-6.263763259793998</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
@@ -2672,40 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>479</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>4506669022.531095</v>
+        <v>581</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001668197721890523</v>
+        <v>4582494557.270033</v>
       </c>
       <c r="F49" t="n">
-        <v>0.2784069128944654</v>
+        <v>0.005522477782300763</v>
       </c>
       <c r="G49" t="b">
         <v>0</v>
       </c>
       <c r="H49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="I49" t="n">
-        <v>8</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.3154256426263176</v>
-      </c>
-      <c r="L49" t="n">
-        <v>3.33164127564218</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0.8628986617237445</v>
-      </c>
-      <c r="N49" t="n">
-        <v>-3.33164127564218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50">
@@ -2718,40 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>559</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
-        <v>5877760196.501237</v>
+        <v>528</v>
       </c>
       <c r="E50" t="n">
-        <v>0.004838338444516511</v>
+        <v>6172077952.063934</v>
       </c>
       <c r="F50" t="n">
-        <v>0.2491151324736921</v>
+        <v>0.00302454040725072</v>
       </c>
       <c r="G50" t="b">
         <v>0</v>
       </c>
       <c r="H50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2561935184014295</v>
-      </c>
-      <c r="L50" t="n">
-        <v>5.181653021797848</v>
-      </c>
-      <c r="M50" t="n">
-        <v>1.03293554975627</v>
-      </c>
-      <c r="N50" t="n">
-        <v>-5.181653021797848</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51">
@@ -2764,40 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>547</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
-        <v>5810593363.515237</v>
+        <v>394</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004467493220802955</v>
+        <v>5122419457.871868</v>
       </c>
       <c r="F51" t="n">
-        <v>0.2465852005746268</v>
+        <v>0.005513519040122859</v>
       </c>
       <c r="G51" t="b">
         <v>0</v>
       </c>
       <c r="H51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="I51" t="n">
-        <v>7</v>
-      </c>
-      <c r="J51" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K51" t="n">
-        <v>0.2510776381656324</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.475547781987587</v>
-      </c>
-      <c r="M51" t="n">
-        <v>0.9576215784528035</v>
-      </c>
-      <c r="N51" t="n">
-        <v>-3.475547781987587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -2810,40 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>444</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
-        <v>6470012241.540823</v>
+        <v>497</v>
       </c>
       <c r="E52" t="n">
-        <v>0.004773646221288592</v>
+        <v>6072295784.125891</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1797537804539039</v>
+        <v>0.00174462550873201</v>
       </c>
       <c r="G52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="I52" t="n">
-        <v>6</v>
-      </c>
-      <c r="J52" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K52" t="n">
-        <v>0.1159350513425731</v>
-      </c>
-      <c r="L52" t="n">
-        <v>3.598760866653905</v>
-      </c>
-      <c r="M52" t="n">
-        <v>0.8569832028566277</v>
-      </c>
-      <c r="N52" t="n">
-        <v>-3.598760866653905</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2856,40 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>504</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
-        <v>5986802561.862445</v>
+        <v>443</v>
       </c>
       <c r="E53" t="n">
-        <v>0.002647591793902008</v>
+        <v>6324486369.151237</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2205137961972986</v>
+        <v>0.003377449122796449</v>
       </c>
       <c r="G53" t="b">
         <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.198357569920821</v>
-      </c>
-      <c r="I53" t="n">
-        <v>8</v>
-      </c>
-      <c r="J53" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0.1983575699208209</v>
-      </c>
-      <c r="L53" t="n">
-        <v>3.214573202936684</v>
-      </c>
-      <c r="M53" t="n">
-        <v>0.8924707402137325</v>
-      </c>
-      <c r="N53" t="n">
-        <v>-3.214573202936684</v>
+        <v>6</v>
       </c>
     </row>
     <row r="54">
@@ -2902,40 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
-        <v>6883632404.78794</v>
+        <v>591</v>
       </c>
       <c r="E54" t="n">
-        <v>0.001273042417447379</v>
+        <v>5380517365.490666</v>
       </c>
       <c r="F54" t="n">
-        <v>0.173519120394808</v>
+        <v>0.004388623021310222</v>
       </c>
       <c r="G54" t="b">
         <v>0</v>
       </c>
       <c r="H54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="I54" t="n">
         <v>9</v>
-      </c>
-      <c r="J54" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K54" t="n">
-        <v>0.1033276866206108</v>
-      </c>
-      <c r="L54" t="n">
-        <v>2.947043056789133</v>
-      </c>
-      <c r="M54" t="n">
-        <v>0.8158351380090542</v>
-      </c>
-      <c r="N54" t="n">
-        <v>-2.947043056789133</v>
       </c>
     </row>
     <row r="55">
@@ -2948,40 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>501</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
-        <v>6289150161.433359</v>
+        <v>568</v>
       </c>
       <c r="E55" t="n">
-        <v>0.002644703070806149</v>
+        <v>8888305163.129538</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2086632305343001</v>
+        <v>0.004145768844443085</v>
       </c>
       <c r="G55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
-        <v>0.1743940495269526</v>
-      </c>
-      <c r="I55" t="n">
-        <v>7</v>
-      </c>
-      <c r="J55" t="n">
-        <v>0.9603339297840109</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0.1743940495269525</v>
-      </c>
-      <c r="L55" t="n">
-        <v>3.398864193348908</v>
-      </c>
-      <c r="M55" t="n">
-        <v>1.347641602305184</v>
-      </c>
-      <c r="N55" t="n">
-        <v>-3.398864193348908</v>
+        <v>10</v>
       </c>
     </row>
     <row r="56">
@@ -2994,40 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>493</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
-        <v>5596839608.75808</v>
+        <v>467</v>
       </c>
       <c r="E56" t="n">
-        <v>0.003304461626571624</v>
+        <v>6362680706.683377</v>
       </c>
       <c r="F56" t="n">
-        <v>0.230730083452677</v>
+        <v>0.002020964619518335</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="I56" t="n">
-        <v>5</v>
-      </c>
-      <c r="J56" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0.2190163481560479</v>
-      </c>
-      <c r="L56" t="n">
-        <v>4.034260873970724</v>
-      </c>
-      <c r="M56" t="n">
-        <v>0.9313504477773764</v>
-      </c>
-      <c r="N56" t="n">
-        <v>-4.034260873970724</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57">
@@ -3040,40 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>426</v>
+        <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>5810276155.501841</v>
+        <v>475</v>
       </c>
       <c r="E57" t="n">
-        <v>0.002658115859908592</v>
+        <v>7431430261.999914</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1920494155761211</v>
+        <v>0.00346940678771203</v>
       </c>
       <c r="G57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="I57" t="n">
-        <v>4</v>
-      </c>
-      <c r="J57" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K57" t="n">
-        <v>0.1407985651516062</v>
-      </c>
-      <c r="L57" t="n">
-        <v>4.406371620404389</v>
-      </c>
-      <c r="M57" t="n">
-        <v>0.8715188272955615</v>
-      </c>
-      <c r="N57" t="n">
-        <v>-4.406371620404389</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58">
@@ -3086,40 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
-        <v>8242525952.269956</v>
+        <v>484</v>
       </c>
       <c r="E58" t="n">
-        <v>0.001281571908175489</v>
+        <v>4832188094.252636</v>
       </c>
       <c r="F58" t="n">
-        <v>0.139827476027855</v>
+        <v>0.002863500711366417</v>
       </c>
       <c r="G58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="I58" t="n">
-        <v>10</v>
-      </c>
-      <c r="J58" t="n">
-        <v>0.8383339238248698</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0.035198415001845</v>
-      </c>
-      <c r="L58" t="n">
-        <v>2.732983691090257</v>
-      </c>
-      <c r="M58" t="n">
-        <v>1.116956571100972</v>
-      </c>
-      <c r="N58" t="n">
-        <v>-2.732983691090257</v>
+        <v>7</v>
       </c>
     </row>
     <row r="59">
@@ -3132,40 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>480</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
-        <v>6466275997.81827</v>
+        <v>352</v>
       </c>
       <c r="E59" t="n">
-        <v>0.001864157960898031</v>
+        <v>6549928214.709133</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1944406951426474</v>
+        <v>0.004569753053534253</v>
       </c>
       <c r="G59" t="b">
         <v>0</v>
       </c>
       <c r="H59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>0.9695867871379281</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0.1456340707544159</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2.989349440922938</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.298894760092173</v>
-      </c>
-      <c r="N59" t="n">
-        <v>-2.989349440922938</v>
+        <v>4</v>
       </c>
     </row>
     <row r="60">
@@ -3178,40 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>435</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
-        <v>7458213348.712278</v>
+        <v>424</v>
       </c>
       <c r="E60" t="n">
-        <v>0.003912790763270439</v>
+        <v>4097926963.488471</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1527758186478713</v>
+        <v>0.003760400465214537</v>
       </c>
       <c r="G60" t="b">
         <v>0</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="I60" t="n">
-        <v>6</v>
-      </c>
-      <c r="J60" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K60" t="n">
-        <v>0.06138179571677433</v>
-      </c>
-      <c r="L60" t="n">
-        <v>3.544207611028106</v>
-      </c>
-      <c r="M60" t="n">
-        <v>0.8460098333675071</v>
-      </c>
-      <c r="N60" t="n">
-        <v>-3.544207611028106</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3224,40 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>2637048990.363001</v>
+        <v>488</v>
       </c>
       <c r="E61" t="n">
-        <v>0.001031373666018985</v>
+        <v>6101481027.016354</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5453236232073364</v>
+        <v>0.003962348125201669</v>
       </c>
       <c r="G61" t="b">
         <v>1</v>
       </c>
       <c r="H61" t="n">
-        <v>0.8551689943734926</v>
-      </c>
-      <c r="I61" t="n">
-        <v>8</v>
-      </c>
-      <c r="J61" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0.8551689943734927</v>
-      </c>
-      <c r="L61" t="n">
-        <v>3.871384627389356</v>
-      </c>
-      <c r="M61" t="n">
-        <v>0.9433673098306302</v>
-      </c>
-      <c r="N61" t="n">
-        <v>-3.871384627389356</v>
+        <v>7</v>
       </c>
     </row>
     <row r="62">
@@ -3270,40 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>465</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
-        <v>2433472544.51927</v>
+        <v>441</v>
       </c>
       <c r="E62" t="n">
-        <v>0.00356047916079438</v>
+        <v>4436156232.241773</v>
       </c>
       <c r="F62" t="n">
-        <v>0.5005260292511818</v>
+        <v>0.004071704881255813</v>
       </c>
       <c r="G62" t="b">
         <v>0</v>
       </c>
       <c r="H62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="I62" t="n">
-        <v>7</v>
-      </c>
-      <c r="J62" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0.7645819214106879</v>
-      </c>
-      <c r="L62" t="n">
-        <v>3.989052065232643</v>
-      </c>
-      <c r="M62" t="n">
-        <v>0.8641611795458871</v>
-      </c>
-      <c r="N62" t="n">
-        <v>-3.989052065232643</v>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
@@ -3316,40 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>513</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
-        <v>6912856639.093707</v>
+        <v>490</v>
       </c>
       <c r="E63" t="n">
-        <v>0.003768429386582036</v>
+        <v>8089504809.421611</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1943837606006203</v>
+        <v>0.003718997311265873</v>
       </c>
       <c r="G63" t="b">
         <v>0</v>
       </c>
       <c r="H63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="I63" t="n">
         <v>8</v>
-      </c>
-      <c r="J63" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0.145518941055313</v>
-      </c>
-      <c r="L63" t="n">
-        <v>3.161734574071176</v>
-      </c>
-      <c r="M63" t="n">
-        <v>0.9028796121086876</v>
-      </c>
-      <c r="N63" t="n">
-        <v>-3.161734574071176</v>
       </c>
     </row>
     <row r="64">
@@ -3362,40 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>471</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
-        <v>6391668090.078709</v>
+        <v>545</v>
       </c>
       <c r="E64" t="n">
-        <v>0.002179511539909362</v>
+        <v>5124726262.292025</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1930220206388732</v>
+        <v>0.004293159755891633</v>
       </c>
       <c r="G64" t="b">
         <v>0</v>
       </c>
       <c r="H64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="I64" t="n">
-        <v>4</v>
-      </c>
-      <c r="J64" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K64" t="n">
-        <v>0.1427653101930867</v>
-      </c>
-      <c r="L64" t="n">
-        <v>4.408338365445871</v>
-      </c>
-      <c r="M64" t="n">
-        <v>0.9235707473984132</v>
-      </c>
-      <c r="N64" t="n">
-        <v>-4.408338365445871</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3408,40 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>588</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
-        <v>3533388679.974515</v>
+        <v>507</v>
       </c>
       <c r="E65" t="n">
-        <v>0.003973875328748099</v>
+        <v>5155013936.631182</v>
       </c>
       <c r="F65" t="n">
-        <v>0.4358992059744497</v>
+        <v>0.00553802763108116</v>
       </c>
       <c r="G65" t="b">
         <v>0</v>
       </c>
       <c r="H65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="I65" t="n">
-        <v>5</v>
-      </c>
-      <c r="J65" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0.633897341313517</v>
-      </c>
-      <c r="L65" t="n">
-        <v>4.449141867128193</v>
-      </c>
-      <c r="M65" t="n">
-        <v>1.031829132734964</v>
-      </c>
-      <c r="N65" t="n">
-        <v>-4.449141867128193</v>
+        <v>7</v>
       </c>
     </row>
     <row r="66">
@@ -3454,40 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>491</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
-        <v>5567110560.494678</v>
+        <v>472</v>
       </c>
       <c r="E66" t="n">
-        <v>0.001036876469909744</v>
+        <v>5103643592.418282</v>
       </c>
       <c r="F66" t="n">
-        <v>0.2310211870277135</v>
+        <v>0.002636154347518794</v>
       </c>
       <c r="G66" t="b">
         <v>0</v>
       </c>
       <c r="H66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="I66" t="n">
-        <v>7</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0.2196050007702346</v>
-      </c>
-      <c r="L66" t="n">
-        <v>3.44407514459219</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0.8948524251721498</v>
-      </c>
-      <c r="N66" t="n">
-        <v>-3.44407514459219</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
@@ -3500,40 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>456</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
-        <v>4654366646.283361</v>
+        <v>411</v>
       </c>
       <c r="E67" t="n">
-        <v>0.002839696911497791</v>
+        <v>5477537041.040968</v>
       </c>
       <c r="F67" t="n">
-        <v>0.2566282226506144</v>
+        <v>0.00536335039139916</v>
       </c>
       <c r="G67" t="b">
         <v>0</v>
       </c>
       <c r="H67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="I67" t="n">
-        <v>2</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0.7594381652532198</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0.2713860496944966</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6.303817315726222</v>
-      </c>
-      <c r="M67" t="n">
-        <v>1.18412969279099</v>
-      </c>
-      <c r="N67" t="n">
-        <v>-6.303817315726222</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
@@ -3546,40 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>366</v>
+        <v>1</v>
       </c>
       <c r="D68" t="n">
-        <v>6513821875.080105</v>
+        <v>462</v>
       </c>
       <c r="E68" t="n">
-        <v>0.003140511718216091</v>
+        <v>8440496524.198179</v>
       </c>
       <c r="F68" t="n">
-        <v>0.147178838842321</v>
+        <v>0.00305214451352162</v>
       </c>
       <c r="G68" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5</v>
-      </c>
-      <c r="J68" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0.05006391068676649</v>
-      </c>
-      <c r="L68" t="n">
-        <v>3.865308436501443</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0.7769885804639518</v>
-      </c>
-      <c r="N68" t="n">
-        <v>-3.865308436501443</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3592,40 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>536</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
-        <v>5636052620.792421</v>
+        <v>517</v>
       </c>
       <c r="E69" t="n">
-        <v>0.004981285858341339</v>
+        <v>4695243862.058455</v>
       </c>
       <c r="F69" t="n">
-        <v>0.2491092852505342</v>
+        <v>0.001235907671501659</v>
       </c>
       <c r="G69" t="b">
         <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="I69" t="n">
         <v>6</v>
-      </c>
-      <c r="J69" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0.2561816944889364</v>
-      </c>
-      <c r="L69" t="n">
-        <v>3.739007509800268</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0.9620024542359084</v>
-      </c>
-      <c r="N69" t="n">
-        <v>-3.739007509800268</v>
       </c>
     </row>
     <row r="70">
@@ -3638,40 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>463</v>
+        <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>1965775214.208023</v>
+        <v>490</v>
       </c>
       <c r="E70" t="n">
-        <v>0.003238681339025371</v>
+        <v>5580203628.685246</v>
       </c>
       <c r="F70" t="n">
-        <v>0.6169462109575978</v>
+        <v>0.003501112910616458</v>
       </c>
       <c r="G70" t="b">
         <v>0</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>3</v>
-      </c>
-      <c r="J70" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K70" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" t="n">
-        <v>5.925459503396418</v>
-      </c>
-      <c r="M70" t="n">
-        <v>0.9314621573072616</v>
-      </c>
-      <c r="N70" t="n">
-        <v>-5.925459503396418</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71">
@@ -3684,40 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>392</v>
+        <v>1</v>
       </c>
       <c r="D71" t="n">
-        <v>5407619371.805444</v>
+        <v>474</v>
       </c>
       <c r="E71" t="n">
-        <v>0.004938921305132829</v>
+        <v>3412191815.156781</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1898803908709983</v>
+        <v>0.003743390824919322</v>
       </c>
       <c r="G71" t="b">
         <v>0</v>
       </c>
       <c r="H71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="I71" t="n">
-        <v>3</v>
-      </c>
-      <c r="J71" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0.1364124903232707</v>
-      </c>
-      <c r="L71" t="n">
-        <v>5.061871993719689</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0.8486445503116873</v>
-      </c>
-      <c r="N71" t="n">
-        <v>-5.061871993719689</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -3730,40 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>630</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
-        <v>7800886068.803999</v>
+        <v>460</v>
       </c>
       <c r="E72" t="n">
-        <v>0.001261785409125543</v>
+        <v>8284124702.767893</v>
       </c>
       <c r="F72" t="n">
-        <v>0.2115420845074596</v>
+        <v>0.001770735532374397</v>
       </c>
       <c r="G72" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>0.4325548800850899</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0.1802154995622179</v>
-      </c>
-      <c r="L72" t="n">
-        <v>3.995460025376894</v>
-      </c>
-      <c r="M72" t="n">
-        <v>0.9981515800265551</v>
-      </c>
-      <c r="N72" t="n">
-        <v>-3.995460025376894</v>
+        <v>6</v>
       </c>
     </row>
     <row r="73">
@@ -3776,40 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>523</v>
+        <v>1</v>
       </c>
       <c r="D73" t="n">
-        <v>6719917299.934001</v>
+        <v>480</v>
       </c>
       <c r="E73" t="n">
-        <v>0.001731362858148437</v>
+        <v>5533335410.803488</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2038627722417737</v>
+        <v>0.001301118625058616</v>
       </c>
       <c r="G73" t="b">
         <v>0</v>
       </c>
       <c r="H73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="I73" t="n">
-        <v>3</v>
-      </c>
-      <c r="J73" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K73" t="n">
-        <v>0.1646868436884959</v>
-      </c>
-      <c r="L73" t="n">
-        <v>5.090146347084914</v>
-      </c>
-      <c r="M73" t="n">
-        <v>0.996095157429621</v>
-      </c>
-      <c r="N73" t="n">
-        <v>-5.090146347084914</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74">
@@ -3822,40 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>463</v>
+        <v>6</v>
       </c>
       <c r="D74" t="n">
-        <v>6682061397.388458</v>
+        <v>520</v>
       </c>
       <c r="E74" t="n">
-        <v>0.00120225037511986</v>
+        <v>4688778478.412916</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1814975196836695</v>
+        <v>0.003743448803164905</v>
       </c>
       <c r="G74" t="b">
         <v>0</v>
       </c>
       <c r="H74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="I74" t="n">
-        <v>7</v>
-      </c>
-      <c r="J74" t="n">
-        <v>0.837801963055532</v>
-      </c>
-      <c r="K74" t="n">
-        <v>0.1194611387701586</v>
-      </c>
-      <c r="L74" t="n">
-        <v>3.343931282592114</v>
-      </c>
-      <c r="M74" t="n">
-        <v>1.192413748745198</v>
-      </c>
-      <c r="N74" t="n">
-        <v>-3.343931282592114</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75">
@@ -3868,40 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>465</v>
+        <v>1</v>
       </c>
       <c r="D75" t="n">
-        <v>4792120646.976908</v>
+        <v>441</v>
       </c>
       <c r="E75" t="n">
-        <v>0.003854487465476196</v>
+        <v>7456907952.940635</v>
       </c>
       <c r="F75" t="n">
-        <v>0.2541706354510046</v>
+        <v>0.003183752902456317</v>
       </c>
       <c r="G75" t="b">
         <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="I75" t="n">
-        <v>9</v>
-      </c>
-      <c r="J75" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K75" t="n">
-        <v>0.2664164606763587</v>
-      </c>
-      <c r="L75" t="n">
-        <v>3.110131830844881</v>
-      </c>
-      <c r="M75" t="n">
-        <v>0.82720888790809</v>
-      </c>
-      <c r="N75" t="n">
-        <v>-3.110131830844881</v>
+        <v>6</v>
       </c>
     </row>
     <row r="76">
@@ -3914,40 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>520</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
-        <v>5295899379.971079</v>
+        <v>459</v>
       </c>
       <c r="E76" t="n">
-        <v>0.001266857043339143</v>
+        <v>5321889857.322452</v>
       </c>
       <c r="F76" t="n">
-        <v>0.2571957475535418</v>
+        <v>0.002178450972354358</v>
       </c>
       <c r="G76" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="I76" t="n">
         <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K76" t="n">
-        <v>0.2725336653418907</v>
-      </c>
-      <c r="L76" t="n">
-        <v>3.497003809163846</v>
-      </c>
-      <c r="M76" t="n">
-        <v>0.9278881247471482</v>
-      </c>
-      <c r="N76" t="n">
-        <v>-3.497003809163846</v>
       </c>
     </row>
     <row r="77">
@@ -3960,40 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>541</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
-        <v>6090836533.11596</v>
+        <v>576</v>
       </c>
       <c r="E77" t="n">
-        <v>0.001538019686585953</v>
+        <v>7567845769.798312</v>
       </c>
       <c r="F77" t="n">
-        <v>0.2326593370705752</v>
+        <v>0.005701493740408234</v>
       </c>
       <c r="G77" t="b">
         <v>1</v>
       </c>
       <c r="H77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="I77" t="n">
-        <v>2</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K77" t="n">
-        <v>0.2229175719230956</v>
-      </c>
-      <c r="L77" t="n">
-        <v>6.255348837954821</v>
-      </c>
-      <c r="M77" t="n">
-        <v>1.029966361733486</v>
-      </c>
-      <c r="N77" t="n">
-        <v>-6.255348837954821</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78">
@@ -4006,40 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>508</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
-        <v>5755377573.569175</v>
+        <v>454</v>
       </c>
       <c r="E78" t="n">
-        <v>0.003950433851355712</v>
+        <v>6545120553.113021</v>
       </c>
       <c r="F78" t="n">
-        <v>0.2312011858458841</v>
+        <v>0.004421070902364541</v>
       </c>
       <c r="G78" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5</v>
-      </c>
-      <c r="J78" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K78" t="n">
-        <v>0.2199689838468881</v>
-      </c>
-      <c r="L78" t="n">
-        <v>4.035213509661564</v>
-      </c>
-      <c r="M78" t="n">
-        <v>0.9479238416744937</v>
-      </c>
-      <c r="N78" t="n">
-        <v>-4.035213509661564</v>
+        <v>7</v>
       </c>
     </row>
     <row r="79">
@@ -4052,40 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>517</v>
+        <v>1</v>
       </c>
       <c r="D79" t="n">
-        <v>7735365364.397675</v>
+        <v>461</v>
       </c>
       <c r="E79" t="n">
-        <v>0.003364631192832288</v>
+        <v>7614882660.980189</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1750692522208288</v>
+        <v>0.001707075679199839</v>
       </c>
       <c r="G79" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="I79" t="n">
-        <v>4</v>
-      </c>
-      <c r="J79" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K79" t="n">
-        <v>0.1064622724861632</v>
-      </c>
-      <c r="L79" t="n">
-        <v>4.372035327738947</v>
-      </c>
-      <c r="M79" t="n">
-        <v>0.9739081996979064</v>
-      </c>
-      <c r="N79" t="n">
-        <v>-4.372035327738947</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80">
@@ -4098,40 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>562</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
-        <v>4088529327.703747</v>
+        <v>573</v>
       </c>
       <c r="E80" t="n">
-        <v>0.003528505863791298</v>
+        <v>6653030142.939449</v>
       </c>
       <c r="F80" t="n">
-        <v>0.360055428739404</v>
+        <v>0.003230672328564699</v>
       </c>
       <c r="G80" t="b">
         <v>0</v>
       </c>
       <c r="H80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K80" t="n">
-        <v>0.4805304933330156</v>
-      </c>
-      <c r="L80" t="n">
-        <v>3.705000637154971</v>
-      </c>
-      <c r="M80" t="n">
-        <v>0.9737479348159102</v>
-      </c>
-      <c r="N80" t="n">
-        <v>-3.705000637154971</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81">
@@ -4144,40 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>525</v>
+        <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>7788620010.622391</v>
+        <v>427</v>
       </c>
       <c r="E81" t="n">
-        <v>0.001341926276424057</v>
+        <v>5625564390.986646</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1765626963601359</v>
+        <v>0.004287631898721318</v>
       </c>
       <c r="G81" t="b">
         <v>0</v>
       </c>
       <c r="H81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="I81" t="n">
-        <v>2</v>
-      </c>
-      <c r="J81" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K81" t="n">
-        <v>0.1094822278289814</v>
-      </c>
-      <c r="L81" t="n">
-        <v>6.141913493860707</v>
-      </c>
-      <c r="M81" t="n">
-        <v>1.013710193493872</v>
-      </c>
-      <c r="N81" t="n">
-        <v>-6.141913493860707</v>
+        <v>6</v>
       </c>
     </row>
     <row r="82">
@@ -4190,40 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>492</v>
+        <v>1</v>
       </c>
       <c r="D82" t="n">
-        <v>5110137236.720218</v>
+        <v>423</v>
       </c>
       <c r="E82" t="n">
-        <v>0.003894114140797396</v>
+        <v>8386378688.865501</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2521928121106856</v>
+        <v>0.004736120238512271</v>
       </c>
       <c r="G82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="I82" t="n">
-        <v>3</v>
-      </c>
-      <c r="J82" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0.2624170220589103</v>
-      </c>
-      <c r="L82" t="n">
-        <v>5.187876525455328</v>
-      </c>
-      <c r="M82" t="n">
-        <v>0.963243094813453</v>
-      </c>
-      <c r="N82" t="n">
-        <v>-5.187876525455328</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83">
@@ -4236,40 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>459</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>6735153055.929583</v>
+        <v>504</v>
       </c>
       <c r="E83" t="n">
-        <v>0.0037012104166638</v>
+        <v>9650469999.008383</v>
       </c>
       <c r="F83" t="n">
-        <v>0.17851116374282</v>
+        <v>0.003112535142807101</v>
       </c>
       <c r="G83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="I83" t="n">
-        <v>11</v>
-      </c>
-      <c r="J83" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K83" t="n">
-        <v>0.1134223045467979</v>
-      </c>
-      <c r="L83" t="n">
-        <v>2.68565963911469</v>
-      </c>
-      <c r="M83" t="n">
-        <v>0.780587063061011</v>
-      </c>
-      <c r="N83" t="n">
-        <v>-2.68565963911469</v>
+        <v>8</v>
       </c>
     </row>
     <row r="84">
@@ -4282,40 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>549</v>
+        <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>7195812894.707349</v>
+        <v>524</v>
       </c>
       <c r="E84" t="n">
-        <v>0.004963485888600078</v>
+        <v>6521365391.885183</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1998447056701138</v>
+        <v>0.004876134179142568</v>
       </c>
       <c r="G84" t="b">
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="I84" t="n">
         <v>9</v>
-      </c>
-      <c r="J84" t="n">
-        <v>0.1816232800539612</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0.1565617446027592</v>
-      </c>
-      <c r="L84" t="n">
-        <v>3.000277114771281</v>
-      </c>
-      <c r="M84" t="n">
-        <v>0.3747934692649229</v>
-      </c>
-      <c r="N84" t="n">
-        <v>-3.000277114771281</v>
       </c>
     </row>
     <row r="85">
@@ -4328,40 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>515</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
-        <v>7343572059.348492</v>
+        <v>512</v>
       </c>
       <c r="E85" t="n">
-        <v>0.001686637261955489</v>
+        <v>5325739942.011033</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1836961412100148</v>
+        <v>0.003821292056701967</v>
       </c>
       <c r="G85" t="b">
         <v>0</v>
       </c>
       <c r="H85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="I85" t="n">
-        <v>8</v>
-      </c>
-      <c r="J85" t="n">
-        <v>0.4083417563589569</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0.1239070625583775</v>
-      </c>
-      <c r="L85" t="n">
-        <v>3.14012269557424</v>
-      </c>
-      <c r="M85" t="n">
-        <v>0.799643331661536</v>
-      </c>
-      <c r="N85" t="n">
-        <v>-3.14012269557424</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -4374,40 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>574</v>
+        <v>6</v>
       </c>
       <c r="D86" t="n">
-        <v>4377831733.119165</v>
+        <v>517</v>
       </c>
       <c r="E86" t="n">
-        <v>0.004067952650289239</v>
+        <v>5946565914.957723</v>
       </c>
       <c r="F86" t="n">
-        <v>0.3434416742483495</v>
+        <v>0.002296895070042238</v>
       </c>
       <c r="G86" t="b">
         <v>0</v>
       </c>
       <c r="H86" t="n">
-        <v>0.4469351312307499</v>
-      </c>
-      <c r="I86" t="n">
         <v>9</v>
-      </c>
-      <c r="J86" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K86" t="n">
-        <v>0.4469351312307498</v>
-      </c>
-      <c r="L86" t="n">
-        <v>3.290650501399272</v>
-      </c>
-      <c r="M86" t="n">
-        <v>0.9542545797585142</v>
-      </c>
-      <c r="N86" t="n">
-        <v>-3.290650501399272</v>
       </c>
     </row>
     <row r="87">
@@ -4420,40 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>585</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>7449649415.639398</v>
+        <v>500</v>
       </c>
       <c r="E87" t="n">
-        <v>0.001649241042602768</v>
+        <v>3330699241.537758</v>
       </c>
       <c r="F87" t="n">
-        <v>0.2056933238741518</v>
+        <v>0.001638155218974945</v>
       </c>
       <c r="G87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H87" t="n">
-        <v>0.1683884780764212</v>
-      </c>
-      <c r="I87" t="n">
-        <v>8</v>
-      </c>
-      <c r="J87" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K87" t="n">
-        <v>0.1683884780764211</v>
-      </c>
-      <c r="L87" t="n">
-        <v>3.184604111092284</v>
-      </c>
-      <c r="M87" t="n">
-        <v>0.9821874406408517</v>
-      </c>
-      <c r="N87" t="n">
-        <v>-3.184604111092284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -4466,40 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>440</v>
+        <v>6</v>
       </c>
       <c r="D88" t="n">
-        <v>6398240578.25938</v>
+        <v>477</v>
       </c>
       <c r="E88" t="n">
-        <v>0.004918757018959292</v>
+        <v>9376091372.396955</v>
       </c>
       <c r="F88" t="n">
-        <v>0.180132582684714</v>
+        <v>0.003961933258325717</v>
       </c>
       <c r="G88" t="b">
         <v>0</v>
       </c>
       <c r="H88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="I88" t="n">
-        <v>8</v>
-      </c>
-      <c r="J88" t="n">
-        <v>0.7918400027320247</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0.1167010430463785</v>
-      </c>
-      <c r="L88" t="n">
-        <v>3.132916676062241</v>
-      </c>
-      <c r="M88" t="n">
-        <v>1.106150724889173</v>
-      </c>
-      <c r="N88" t="n">
-        <v>-3.132916676062241</v>
+        <v>7</v>
       </c>
     </row>
     <row r="89">
@@ -4512,40 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>524</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
-        <v>5174470637.695141</v>
+        <v>473</v>
       </c>
       <c r="E89" t="n">
-        <v>0.003816160062299888</v>
+        <v>7068090542.722425</v>
       </c>
       <c r="F89" t="n">
-        <v>0.2652561887202781</v>
+        <v>0.005154075544509376</v>
       </c>
       <c r="G89" t="b">
         <v>0</v>
       </c>
       <c r="H89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="I89" t="n">
         <v>7</v>
-      </c>
-      <c r="J89" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0.2888330177758225</v>
-      </c>
-      <c r="L89" t="n">
-        <v>3.513303161597777</v>
-      </c>
-      <c r="M89" t="n">
-        <v>-0.4677071733467427</v>
-      </c>
-      <c r="N89" t="n">
-        <v>-3.513303161597777</v>
       </c>
     </row>
     <row r="90">
@@ -4558,40 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>522</v>
+        <v>6</v>
       </c>
       <c r="D90" t="n">
-        <v>7673803833.100504</v>
+        <v>433</v>
       </c>
       <c r="E90" t="n">
-        <v>0.004942449594295887</v>
+        <v>5852333018.426005</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1781804186995422</v>
+        <v>0.003459320805813443</v>
       </c>
       <c r="G90" t="b">
         <v>0</v>
       </c>
       <c r="H90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="I90" t="n">
-        <v>8</v>
-      </c>
-      <c r="J90" t="n">
-        <v>0.06305816687008649</v>
-      </c>
-      <c r="K90" t="n">
-        <v>0.1127534912753349</v>
-      </c>
-      <c r="L90" t="n">
-        <v>3.128969124291197</v>
-      </c>
-      <c r="M90" t="n">
-        <v>-0.3328407732802766</v>
-      </c>
-      <c r="N90" t="n">
-        <v>-3.128969124291197</v>
+        <v>6</v>
       </c>
     </row>
     <row r="91">
@@ -4604,40 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>394</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
-        <v>6999966105.848434</v>
+        <v>556</v>
       </c>
       <c r="E91" t="n">
-        <v>0.003350828696333004</v>
+        <v>5033962570.672218</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1474349510260823</v>
+        <v>0.004527756611346029</v>
       </c>
       <c r="G91" t="b">
         <v>0</v>
       </c>
       <c r="H91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="I91" t="n">
-        <v>2</v>
-      </c>
-      <c r="J91" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0.0505818057571972</v>
-      </c>
-      <c r="L91" t="n">
-        <v>6.083013071788923</v>
-      </c>
-      <c r="M91" t="n">
-        <v>0.8692527633044185</v>
-      </c>
-      <c r="N91" t="n">
-        <v>-6.083013071788923</v>
+        <v>10</v>
       </c>
     </row>
     <row r="92">
@@ -4650,40 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>613</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
-        <v>6436374362.913134</v>
+        <v>534</v>
       </c>
       <c r="E92" t="n">
-        <v>0.002467237847201718</v>
+        <v>3848911455.189158</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2494705838199969</v>
+        <v>0.00322599414631996</v>
       </c>
       <c r="G92" t="b">
         <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="I92" t="n">
-        <v>7</v>
-      </c>
-      <c r="J92" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0.256912291313072</v>
-      </c>
-      <c r="L92" t="n">
-        <v>3.481382435135027</v>
-      </c>
-      <c r="M92" t="n">
-        <v>1.026684606339068</v>
-      </c>
-      <c r="N92" t="n">
-        <v>-3.481382435135027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -4696,40 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>514</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
-        <v>6075216945.814507</v>
+        <v>588</v>
       </c>
       <c r="E93" t="n">
-        <v>0.001278181697244812</v>
+        <v>5401022507.555296</v>
       </c>
       <c r="F93" t="n">
-        <v>0.221616194451718</v>
+        <v>0.001563178059977116</v>
       </c>
       <c r="G93" t="b">
         <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="I93" t="n">
-        <v>7</v>
-      </c>
-      <c r="J93" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0.200586775159051</v>
-      </c>
-      <c r="L93" t="n">
-        <v>3.425056918981006</v>
-      </c>
-      <c r="M93" t="n">
-        <v>0.9211503627697569</v>
-      </c>
-      <c r="N93" t="n">
-        <v>-3.425056918981006</v>
+        <v>11</v>
       </c>
     </row>
     <row r="94">
@@ -4742,40 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>571</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>6253933650.121945</v>
+        <v>588</v>
       </c>
       <c r="E94" t="n">
-        <v>0.004966283386816425</v>
+        <v>6258804555.639452</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2391569488382461</v>
+        <v>0.001110804057702264</v>
       </c>
       <c r="G94" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K94" t="n">
-        <v>0.2360566622023207</v>
-      </c>
-      <c r="L94" t="n">
-        <v>6.268487928234046</v>
-      </c>
-      <c r="M94" t="n">
-        <v>1.05977479323776</v>
-      </c>
-      <c r="N94" t="n">
-        <v>-6.268487928234046</v>
+        <v>10</v>
       </c>
     </row>
     <row r="95">
@@ -4788,40 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>492</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
-        <v>7142389052.36998</v>
+        <v>511</v>
       </c>
       <c r="E95" t="n">
-        <v>0.002735000566987866</v>
+        <v>7954144995.023389</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1804354076136992</v>
+        <v>0.002139325979096812</v>
       </c>
       <c r="G95" t="b">
         <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5</v>
-      </c>
-      <c r="J95" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K95" t="n">
-        <v>0.1173133978965919</v>
-      </c>
-      <c r="L95" t="n">
-        <v>3.932557923711268</v>
-      </c>
-      <c r="M95" t="n">
-        <v>0.9302350561582803</v>
-      </c>
-      <c r="N95" t="n">
-        <v>-3.932557923711268</v>
+        <v>8</v>
       </c>
     </row>
     <row r="96">
@@ -4834,40 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>533</v>
+        <v>1</v>
       </c>
       <c r="D96" t="n">
-        <v>5860872598.109471</v>
+        <v>520</v>
       </c>
       <c r="E96" t="n">
-        <v>0.001051412104368176</v>
+        <v>7045494557.098673</v>
       </c>
       <c r="F96" t="n">
-        <v>0.2382127996521112</v>
+        <v>0.003394632995986989</v>
       </c>
       <c r="G96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="I96" t="n">
-        <v>11</v>
-      </c>
-      <c r="J96" t="n">
-        <v>0.07516543886243013</v>
-      </c>
-      <c r="K96" t="n">
-        <v>0.2341474589693102</v>
-      </c>
-      <c r="L96" t="n">
-        <v>2.806384793537202</v>
-      </c>
-      <c r="M96" t="n">
-        <v>-0.417499841198659</v>
-      </c>
-      <c r="N96" t="n">
-        <v>-2.806384793537202</v>
+        <v>8</v>
       </c>
     </row>
     <row r="97">
@@ -4880,40 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>476</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>4407918607.277596</v>
+        <v>514</v>
       </c>
       <c r="E97" t="n">
-        <v>0.004684108216307766</v>
+        <v>8017670239.300297</v>
       </c>
       <c r="F97" t="n">
-        <v>0.2828613118993281</v>
+        <v>0.004346660269498041</v>
       </c>
       <c r="G97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5</v>
-      </c>
-      <c r="J97" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K97" t="n">
-        <v>0.3244330676244966</v>
-      </c>
-      <c r="L97" t="n">
-        <v>4.139677593439172</v>
-      </c>
-      <c r="M97" t="n">
-        <v>0.9122033270037263</v>
-      </c>
-      <c r="N97" t="n">
-        <v>-4.139677593439172</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98">
@@ -4926,40 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>451</v>
+        <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9649857179.860353</v>
+        <v>616</v>
       </c>
       <c r="E98" t="n">
-        <v>0.004780297636508175</v>
+        <v>8619320328.51734</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1224209714176408</v>
+        <v>0.004730763865617711</v>
       </c>
       <c r="G98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5</v>
-      </c>
-      <c r="J98" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>3.815244525814676</v>
-      </c>
-      <c r="M98" t="n">
-        <v>0.8832921306474144</v>
-      </c>
-      <c r="N98" t="n">
-        <v>-3.815244525814676</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99">
@@ -4972,40 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>501</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
-        <v>5534389195.83054</v>
+        <v>567</v>
       </c>
       <c r="E99" t="n">
-        <v>0.004884433672264467</v>
+        <v>3462343799.872752</v>
       </c>
       <c r="F99" t="n">
-        <v>0.2371200043156818</v>
+        <v>0.003787391362640296</v>
       </c>
       <c r="G99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="I99" t="n">
-        <v>7</v>
-      </c>
-      <c r="J99" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K99" t="n">
-        <v>0.2319376721898811</v>
-      </c>
-      <c r="L99" t="n">
-        <v>3.456407816011836</v>
-      </c>
-      <c r="M99" t="n">
-        <v>0.9063800701304533</v>
-      </c>
-      <c r="N99" t="n">
-        <v>-3.456407816011836</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5018,40 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>418</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
-        <v>6104910509.812019</v>
+        <v>422</v>
       </c>
       <c r="E100" t="n">
-        <v>0.002440107138719167</v>
+        <v>3902853302.982439</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1793482505992891</v>
+        <v>0.002291916903368757</v>
       </c>
       <c r="G100" t="b">
         <v>0</v>
       </c>
       <c r="H100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="I100" t="n">
-        <v>8</v>
-      </c>
-      <c r="J100" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0.1151150126019982</v>
-      </c>
-      <c r="L100" t="n">
-        <v>3.131330645617861</v>
-      </c>
-      <c r="M100" t="n">
-        <v>0.7860877122662997</v>
-      </c>
-      <c r="N100" t="n">
-        <v>-3.131330645617861</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101">
@@ -5064,40 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>486</v>
+        <v>6</v>
       </c>
       <c r="D101" t="n">
-        <v>3597566932.069057</v>
+        <v>573</v>
       </c>
       <c r="E101" t="n">
-        <v>0.003962580192655031</v>
+        <v>6521549635.602486</v>
       </c>
       <c r="F101" t="n">
-        <v>0.353856804901153</v>
+        <v>0.001435992950703253</v>
       </c>
       <c r="G101" t="b">
         <v>0</v>
       </c>
       <c r="H101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="I101" t="n">
-        <v>7</v>
-      </c>
-      <c r="J101" t="n">
-        <v>0.4909416497980796</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0.4679959989480223</v>
-      </c>
-      <c r="L101" t="n">
-        <v>3.692466142769977</v>
-      </c>
-      <c r="M101" t="n">
-        <v>0.8890325519855133</v>
-      </c>
-      <c r="N101" t="n">
-        <v>-3.692466142769977</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_32.xlsx
+++ b/output/fit_clients/fit_round_32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:J101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,12 +461,22 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>channelGain</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>isSelected</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -480,22 +490,28 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>6395662865.830317</v>
+        <v>2035855722.529593</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003726916582112072</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+        <v>0.07847487440421773</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.03340205681471778</v>
+      </c>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1017927861.58174</v>
       </c>
     </row>
     <row r="3">
@@ -508,22 +524,28 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>542</v>
+        <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>5410381604.274648</v>
+        <v>1664799067.551564</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003932946327837802</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+        <v>0.1132941477056274</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.03614463165092654</v>
+      </c>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>832399521.666232</v>
       </c>
     </row>
     <row r="4">
@@ -536,22 +558,28 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>534</v>
+        <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>6487915700.180122</v>
+        <v>4653787337.651642</v>
       </c>
       <c r="F4" t="n">
-        <v>0.002705362706659139</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6</v>
+        <v>0.1568939949974919</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.03612512536311391</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>12</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2326893729.123659</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +592,28 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>494</v>
+        <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3523291925.278903</v>
+        <v>3906880835.560723</v>
       </c>
       <c r="F5" t="n">
-        <v>0.004203378494674832</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
+        <v>0.09250735913774973</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.04441496904056318</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1953440427.507127</v>
       </c>
     </row>
     <row r="6">
@@ -595,19 +629,25 @@
         <v>2</v>
       </c>
       <c r="D6" t="n">
-        <v>469</v>
+        <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>7416084501.28158</v>
+        <v>2082975232.825372</v>
       </c>
       <c r="F6" t="n">
-        <v>0.002641071449166963</v>
-      </c>
-      <c r="G6" t="b">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
+        <v>0.1401953119247966</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.04993464987115485</v>
+      </c>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1041487636.806509</v>
       </c>
     </row>
     <row r="7">
@@ -620,22 +660,28 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>539</v>
+        <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>7939275422.339061</v>
+        <v>2481773912.273063</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0009712736108668004</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="n">
+        <v>0.07571123981492371</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.04320385701999599</v>
+      </c>
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
         <v>9</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1240886970.72468</v>
       </c>
     </row>
     <row r="8">
@@ -648,22 +694,28 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
-        <v>513</v>
+        <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>7150592180.856551</v>
+        <v>2579971112.079875</v>
       </c>
       <c r="F8" t="n">
-        <v>0.00325635466956509</v>
-      </c>
-      <c r="G8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
+        <v>0.1847256064362709</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.02201195503913845</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>10</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1289985570.429878</v>
       </c>
     </row>
     <row r="9">
@@ -676,22 +728,28 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>5318666946.01023</v>
+        <v>1720585964.444154</v>
       </c>
       <c r="F9" t="n">
-        <v>0.004151280161948736</v>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>10</v>
+        <v>0.150269447817321</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.02711094187267012</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>860293047.38451</v>
       </c>
     </row>
     <row r="10">
@@ -704,22 +762,28 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
-        <v>529</v>
+        <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3329368134.881958</v>
+        <v>3707797705.270058</v>
       </c>
       <c r="F10" t="n">
-        <v>0.00572973769106283</v>
-      </c>
-      <c r="G10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
+        <v>0.1560175048987802</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.04345790282361706</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>14</v>
+      </c>
+      <c r="J10" t="n">
+        <v>1853898851.710056</v>
       </c>
     </row>
     <row r="11">
@@ -735,19 +799,25 @@
         <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>582</v>
+        <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4863510190.495385</v>
+        <v>3616679387.240036</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001417275251686977</v>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
+        <v>0.1643631665935729</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.04472610785486914</v>
+      </c>
+      <c r="H11" t="b">
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>13</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1808339679.406919</v>
       </c>
     </row>
     <row r="12">
@@ -760,22 +830,28 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
-        <v>537</v>
+        <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>8650696377.713543</v>
+        <v>2492874757.602383</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001530911110132913</v>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>9</v>
+        <v>0.1443683892920283</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.04335169480776068</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1246437350.180476</v>
       </c>
     </row>
     <row r="13">
@@ -788,22 +864,28 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>480</v>
+        <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>6692193599.792449</v>
+        <v>4116043078.202902</v>
       </c>
       <c r="F13" t="n">
-        <v>0.003699583535725611</v>
-      </c>
-      <c r="G13" t="b">
-        <v>1</v>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
+        <v>0.06165026876985186</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.03096669165269396</v>
+      </c>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>11</v>
+      </c>
+      <c r="J13" t="n">
+        <v>2058021587.944589</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +898,28 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>7806341120.430606</v>
+        <v>3059860644.36678</v>
       </c>
       <c r="F14" t="n">
-        <v>0.003435926405502923</v>
-      </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="n">
-        <v>7</v>
+        <v>0.1453268625036101</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.03799781781242464</v>
+      </c>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>10</v>
+      </c>
+      <c r="J14" t="n">
+        <v>1529930352.10799</v>
       </c>
     </row>
     <row r="15">
@@ -844,22 +932,28 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>538</v>
+        <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>5208272357.611649</v>
+        <v>1217108879.087822</v>
       </c>
       <c r="F15" t="n">
-        <v>0.004408710495389047</v>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>9</v>
+        <v>0.08154469126143654</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.03739762438941785</v>
+      </c>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>608554460.7178015</v>
       </c>
     </row>
     <row r="16">
@@ -872,22 +966,28 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>569</v>
+        <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>7684764479.223347</v>
+        <v>2306121762.545278</v>
       </c>
       <c r="F16" t="n">
-        <v>0.004383787991698704</v>
-      </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="n">
-        <v>10</v>
+        <v>0.1037622739061059</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.04583725823523487</v>
+      </c>
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4</v>
+      </c>
+      <c r="J16" t="n">
+        <v>1153060929.226028</v>
       </c>
     </row>
     <row r="17">
@@ -900,22 +1000,28 @@
         </is>
       </c>
       <c r="C17" t="n">
+        <v>4</v>
+      </c>
+      <c r="D17" t="n">
+        <v>476</v>
+      </c>
+      <c r="E17" t="n">
+        <v>5225495349.184966</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.1072678089754548</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.04980751362445813</v>
+      </c>
+      <c r="H17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="n">
-        <v>462</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4604303543.614305</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0.003099132710992835</v>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>6</v>
+      <c r="I17" t="n">
+        <v>9</v>
+      </c>
+      <c r="J17" t="n">
+        <v>2612747648.434487</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1034,28 @@
         </is>
       </c>
       <c r="C18" t="n">
+        <v>2</v>
+      </c>
+      <c r="D18" t="n">
+        <v>504</v>
+      </c>
+      <c r="E18" t="n">
+        <v>4008232169.742536</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.1465890545262724</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.02859767254086768</v>
+      </c>
+      <c r="H18" t="b">
         <v>1</v>
       </c>
-      <c r="D18" t="n">
-        <v>536</v>
-      </c>
-      <c r="E18" t="n">
-        <v>6112920307.403223</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0.001208515870375822</v>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
+      <c r="I18" t="n">
+        <v>10</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2004116041.93326</v>
       </c>
     </row>
     <row r="19">
@@ -956,22 +1068,28 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>512</v>
+        <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>4110837997.347777</v>
+        <v>961341911.3723496</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002380336512355696</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
+        <v>0.1694431400005287</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.02290438764079306</v>
+      </c>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>480670975.3808559</v>
       </c>
     </row>
     <row r="20">
@@ -984,22 +1102,28 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>3851058777.588971</v>
+        <v>2159193009.007239</v>
       </c>
       <c r="F20" t="n">
-        <v>0.001152641893352034</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
+        <v>0.1295222978305929</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.02278291309606175</v>
+      </c>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>4</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1079596513.70717</v>
       </c>
     </row>
     <row r="21">
@@ -1012,22 +1136,28 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
-        <v>440</v>
+        <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>6459339575.830479</v>
+        <v>2288710803.269938</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003934955220858725</v>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
-      </c>
-      <c r="H21" t="n">
-        <v>6</v>
+        <v>0.09884519213818224</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.03071496897548553</v>
+      </c>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="n">
+        <v>3</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1144355409.789792</v>
       </c>
     </row>
     <row r="22">
@@ -1040,22 +1170,28 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
-        <v>441</v>
+        <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>4093624218.663525</v>
+        <v>3237123957.454753</v>
       </c>
       <c r="F22" t="n">
-        <v>0.003688531975771938</v>
-      </c>
-      <c r="G22" t="b">
-        <v>0</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
+        <v>0.1104846391774059</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.03561636890959397</v>
+      </c>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1618562025.866474</v>
       </c>
     </row>
     <row r="23">
@@ -1068,22 +1204,28 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>439</v>
+        <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>7613784654.013403</v>
+        <v>1024977500.666043</v>
       </c>
       <c r="F23" t="n">
-        <v>0.001252209415216094</v>
-      </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>6</v>
+        <v>0.1801295432556898</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.04093153698155069</v>
+      </c>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>512488816.1542101</v>
       </c>
     </row>
     <row r="24">
@@ -1096,22 +1238,28 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>513</v>
+        <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>7697815883.046721</v>
+        <v>2825196233.41714</v>
       </c>
       <c r="F24" t="n">
-        <v>0.003804303636432226</v>
-      </c>
-      <c r="G24" t="b">
+        <v>0.1152442232104772</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.03457091684441345</v>
+      </c>
+      <c r="H24" t="b">
         <v>1</v>
       </c>
-      <c r="H24" t="n">
-        <v>8</v>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>1412598163.544313</v>
       </c>
     </row>
     <row r="25">
@@ -1124,22 +1272,28 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
-        <v>473</v>
+        <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>6500997575.754399</v>
+        <v>1239010315.929629</v>
       </c>
       <c r="F25" t="n">
-        <v>0.003328757875676254</v>
-      </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
-      <c r="H25" t="n">
-        <v>6</v>
+        <v>0.1104221461005611</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.02799410030365669</v>
+      </c>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>619505166.7633767</v>
       </c>
     </row>
     <row r="26">
@@ -1152,22 +1306,28 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>462</v>
+        <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>5206612990.343722</v>
+        <v>1219859338.685377</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0009948209931187522</v>
-      </c>
-      <c r="G26" t="b">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
+        <v>0.107254285537898</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.03341591334126589</v>
+      </c>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>609929695.08508</v>
       </c>
     </row>
     <row r="27">
@@ -1180,22 +1340,28 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
-        <v>517</v>
+        <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>7044850894.126143</v>
+        <v>3158676604.412745</v>
       </c>
       <c r="F27" t="n">
-        <v>0.00388116035591997</v>
-      </c>
-      <c r="G27" t="b">
-        <v>0</v>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
+        <v>0.1049878764993512</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.02469552333419261</v>
+      </c>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>7</v>
+      </c>
+      <c r="J27" t="n">
+        <v>1579338353.953329</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1374,28 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>8376316109.066282</v>
+        <v>2864340792.891727</v>
       </c>
       <c r="F28" t="n">
-        <v>0.005030244966168674</v>
-      </c>
-      <c r="G28" t="b">
-        <v>0</v>
-      </c>
-      <c r="H28" t="n">
-        <v>8</v>
+        <v>0.104804437592916</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.03095503824026442</v>
+      </c>
+      <c r="H28" t="b">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>9</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1432170395.739035</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1408,28 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>504</v>
+        <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>6828996363.113831</v>
+        <v>4613105740.217238</v>
       </c>
       <c r="F29" t="n">
-        <v>0.001101550906990723</v>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" t="n">
-        <v>8</v>
+        <v>0.1032016227945994</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0.0422869512557893</v>
+      </c>
+      <c r="H29" t="b">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>14</v>
+      </c>
+      <c r="J29" t="n">
+        <v>2306552844.245814</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1442,28 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>564</v>
+        <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>8307648371.599123</v>
+        <v>2349567673.758092</v>
       </c>
       <c r="F30" t="n">
-        <v>0.003992917081957999</v>
-      </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
-      <c r="H30" t="n">
-        <v>11</v>
+        <v>0.101497138791272</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.02632455448338039</v>
+      </c>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>1174783913.930362</v>
       </c>
     </row>
     <row r="31">
@@ -1292,22 +1476,28 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
-        <v>457</v>
+        <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>5460619820.178626</v>
+        <v>1024129334.269774</v>
       </c>
       <c r="F31" t="n">
-        <v>0.003148339258668046</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31" t="n">
-        <v>6</v>
+        <v>0.1122570487980942</v>
+      </c>
+      <c r="G31" t="n">
+        <v>0.03482950459340435</v>
+      </c>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>512064659.7789832</v>
       </c>
     </row>
     <row r="32">
@@ -1320,22 +1510,28 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
-        <v>574</v>
+        <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>3774613880.451333</v>
+        <v>1247668802.953129</v>
       </c>
       <c r="F32" t="n">
-        <v>0.001200070585781661</v>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
+        <v>0.1003330195014339</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0.02425699552472223</v>
+      </c>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>623834417.3601807</v>
       </c>
     </row>
     <row r="33">
@@ -1348,22 +1544,28 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
-        <v>470</v>
+        <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>6255708266.777536</v>
+        <v>2634798474.651388</v>
       </c>
       <c r="F33" t="n">
-        <v>0.003139143756692693</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>7</v>
+        <v>0.1334437785063946</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.05872406824299797</v>
+      </c>
+      <c r="H33" t="b">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>9</v>
+      </c>
+      <c r="J33" t="n">
+        <v>1317399263.869936</v>
       </c>
     </row>
     <row r="34">
@@ -1376,22 +1578,28 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>560</v>
+        <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>8008261458.236835</v>
+        <v>1365369415.078928</v>
       </c>
       <c r="F34" t="n">
-        <v>0.004626517433221249</v>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>10</v>
+        <v>0.07530100353660979</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0.02353254430234921</v>
+      </c>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>682684685.227049</v>
       </c>
     </row>
     <row r="35">
@@ -1407,19 +1615,25 @@
         <v>2</v>
       </c>
       <c r="D35" t="n">
-        <v>514</v>
+        <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>5317230135.619516</v>
+        <v>1128502954.384279</v>
       </c>
       <c r="F35" t="n">
-        <v>0.002679975910757598</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>8</v>
+        <v>0.1032004903590277</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0.03002803982764063</v>
+      </c>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>564251467.3862953</v>
       </c>
     </row>
     <row r="36">
@@ -1432,22 +1646,28 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>538</v>
+        <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>5841505299.100378</v>
+        <v>2343015322.833494</v>
       </c>
       <c r="F36" t="n">
-        <v>0.003835228686313068</v>
-      </c>
-      <c r="G36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>9</v>
+        <v>0.1283122520894712</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.02472264514385078</v>
+      </c>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>8</v>
+      </c>
+      <c r="J36" t="n">
+        <v>1171507695.794081</v>
       </c>
     </row>
     <row r="37">
@@ -1460,22 +1680,28 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
-        <v>573</v>
+        <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>5390404721.795745</v>
+        <v>1933971847.571236</v>
       </c>
       <c r="F37" t="n">
-        <v>0.005598046928386516</v>
-      </c>
-      <c r="G37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>8</v>
+        <v>0.1041870454269984</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.03409307318085698</v>
+      </c>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>7</v>
+      </c>
+      <c r="J37" t="n">
+        <v>966985941.7834407</v>
       </c>
     </row>
     <row r="38">
@@ -1488,22 +1714,28 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>461</v>
+        <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>3570582427.562517</v>
+        <v>1759743376.903953</v>
       </c>
       <c r="F38" t="n">
-        <v>0.003164336445928658</v>
-      </c>
-      <c r="G38" t="b">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
+        <v>0.09598108997115118</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0.02767960674006874</v>
+      </c>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>879871700.8244966</v>
       </c>
     </row>
     <row r="39">
@@ -1516,22 +1748,28 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
-        <v>470</v>
+        <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>3931747025.891141</v>
+        <v>1923613912.019282</v>
       </c>
       <c r="F39" t="n">
-        <v>0.002850703737733</v>
-      </c>
-      <c r="G39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" t="n">
-        <v>3</v>
+        <v>0.1322297207143891</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.02631170200487566</v>
+      </c>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>961806961.9709612</v>
       </c>
     </row>
     <row r="40">
@@ -1547,19 +1785,25 @@
         <v>5</v>
       </c>
       <c r="D40" t="n">
-        <v>523</v>
+        <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>6886262258.872794</v>
+        <v>1691728573.178835</v>
       </c>
       <c r="F40" t="n">
-        <v>0.004653698139570267</v>
-      </c>
-      <c r="G40" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>9</v>
+        <v>0.1269606048702739</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0.03876079309665082</v>
+      </c>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>845864204.6110164</v>
       </c>
     </row>
     <row r="41">
@@ -1572,22 +1816,28 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>6054444697.29635</v>
+        <v>2278092504.817128</v>
       </c>
       <c r="F41" t="n">
-        <v>0.001205367672663925</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>9</v>
+        <v>0.1662174684830294</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.04347210504415151</v>
+      </c>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>10</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1139046299.236078</v>
       </c>
     </row>
     <row r="42">
@@ -1600,22 +1850,28 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>514</v>
+        <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>5728213809.54608</v>
+        <v>3190127440.629928</v>
       </c>
       <c r="F42" t="n">
-        <v>0.00442165000703311</v>
-      </c>
-      <c r="G42" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" t="n">
-        <v>8</v>
+        <v>0.1019627848095371</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0.04557179367654567</v>
+      </c>
+      <c r="H42" t="b">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>10</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1595063693.61052</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1884,28 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>493</v>
+        <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>4914379579.29509</v>
+        <v>2593839347.054991</v>
       </c>
       <c r="F43" t="n">
-        <v>0.00463599765757449</v>
-      </c>
-      <c r="G43" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" t="n">
-        <v>7</v>
+        <v>0.1814301748176919</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0.02154564289510935</v>
+      </c>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>1296919712.553008</v>
       </c>
     </row>
     <row r="44">
@@ -1656,22 +1918,28 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>523</v>
+        <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>5858478072.199596</v>
+        <v>2364526152.506269</v>
       </c>
       <c r="F44" t="n">
-        <v>0.001452104729593173</v>
-      </c>
-      <c r="G44" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" t="n">
-        <v>9</v>
+        <v>0.08953847602252669</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0.03281183912080961</v>
+      </c>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>1182263255.128785</v>
       </c>
     </row>
     <row r="45">
@@ -1684,22 +1952,28 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>520</v>
+        <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>5361203112.085996</v>
+        <v>2525278534.492983</v>
       </c>
       <c r="F45" t="n">
-        <v>0.001160127922313951</v>
-      </c>
-      <c r="G45" t="b">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>3</v>
+        <v>0.1253241618888667</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.04418896276191109</v>
+      </c>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1262639310.834532</v>
       </c>
     </row>
     <row r="46">
@@ -1712,22 +1986,28 @@
         </is>
       </c>
       <c r="C46" t="n">
+        <v>2</v>
+      </c>
+      <c r="D46" t="n">
+        <v>525</v>
+      </c>
+      <c r="E46" t="n">
+        <v>5645105819.779646</v>
+      </c>
+      <c r="F46" t="n">
+        <v>0.1471737014041286</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0.0547066693204885</v>
+      </c>
+      <c r="H46" t="b">
         <v>1</v>
       </c>
-      <c r="D46" t="n">
-        <v>406</v>
-      </c>
-      <c r="E46" t="n">
-        <v>11146659844.96452</v>
-      </c>
-      <c r="F46" t="n">
-        <v>0.00510829924956455</v>
-      </c>
-      <c r="G46" t="b">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>5</v>
+      <c r="I46" t="n">
+        <v>11</v>
+      </c>
+      <c r="J46" t="n">
+        <v>2822552973.448449</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2020,28 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>368</v>
+        <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>6776674438.161496</v>
+        <v>3225990781.339474</v>
       </c>
       <c r="F47" t="n">
-        <v>0.002819263411021065</v>
-      </c>
-      <c r="G47" t="b">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>4</v>
+        <v>0.147270000583936</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0.05875272510812241</v>
+      </c>
+      <c r="H47" t="b">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1612995345.696169</v>
       </c>
     </row>
     <row r="48">
@@ -1768,22 +2054,28 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
-        <v>431</v>
+        <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>5228366011.428121</v>
+        <v>4286404850.420619</v>
       </c>
       <c r="F48" t="n">
-        <v>0.003641552263051216</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>6</v>
+        <v>0.09206196409935087</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0.02782693797028176</v>
+      </c>
+      <c r="H48" t="b">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2143202442.772918</v>
       </c>
     </row>
     <row r="49">
@@ -1799,19 +2091,25 @@
         <v>5</v>
       </c>
       <c r="D49" t="n">
-        <v>581</v>
+        <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>4582494557.270033</v>
+        <v>1777864492.247181</v>
       </c>
       <c r="F49" t="n">
-        <v>0.005522477782300763</v>
-      </c>
-      <c r="G49" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
+        <v>0.1518278330635625</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02796132374812865</v>
+      </c>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>888932234.7360312</v>
       </c>
     </row>
     <row r="50">
@@ -1824,22 +2122,28 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
-        <v>528</v>
+        <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>6172077952.063934</v>
+        <v>2741555326.515296</v>
       </c>
       <c r="F50" t="n">
-        <v>0.00302454040725072</v>
-      </c>
-      <c r="G50" t="b">
-        <v>0</v>
-      </c>
-      <c r="H50" t="n">
-        <v>10</v>
+        <v>0.174218983774075</v>
+      </c>
+      <c r="G50" t="n">
+        <v>0.0439219403035104</v>
+      </c>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>1370777741.295575</v>
       </c>
     </row>
     <row r="51">
@@ -1852,22 +2156,28 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
-        <v>394</v>
+        <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>5122419457.871868</v>
+        <v>1163244568.933914</v>
       </c>
       <c r="F51" t="n">
-        <v>0.005513519040122859</v>
-      </c>
-      <c r="G51" t="b">
-        <v>0</v>
-      </c>
-      <c r="H51" t="n">
-        <v>0</v>
+        <v>0.1226680513522441</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.04222916042208036</v>
+      </c>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>581622341.7809381</v>
       </c>
     </row>
     <row r="52">
@@ -1880,22 +2190,28 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
-        <v>497</v>
+        <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>6072295784.125891</v>
+        <v>3233812345.618389</v>
       </c>
       <c r="F52" t="n">
-        <v>0.00174462550873201</v>
-      </c>
-      <c r="G52" t="b">
-        <v>0</v>
-      </c>
-      <c r="H52" t="n">
-        <v>8</v>
+        <v>0.1062176045621762</v>
+      </c>
+      <c r="G52" t="n">
+        <v>0.06048028794205089</v>
+      </c>
+      <c r="H52" t="b">
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>13</v>
+      </c>
+      <c r="J52" t="n">
+        <v>1616906274.186163</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2224,28 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
-        <v>443</v>
+        <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>6324486369.151237</v>
+        <v>3674048412.655793</v>
       </c>
       <c r="F53" t="n">
-        <v>0.003377449122796449</v>
-      </c>
-      <c r="G53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H53" t="n">
-        <v>6</v>
+        <v>0.1373079687535295</v>
+      </c>
+      <c r="G53" t="n">
+        <v>0.03331657101381727</v>
+      </c>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>9</v>
+      </c>
+      <c r="J53" t="n">
+        <v>1837024191.995488</v>
       </c>
     </row>
     <row r="54">
@@ -1936,22 +2258,28 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
-        <v>591</v>
+        <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>5380517365.490666</v>
+        <v>3874197775.170439</v>
       </c>
       <c r="F54" t="n">
-        <v>0.004388623021310222</v>
-      </c>
-      <c r="G54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" t="n">
-        <v>9</v>
+        <v>0.103856707062574</v>
+      </c>
+      <c r="G54" t="n">
+        <v>0.04653089480824284</v>
+      </c>
+      <c r="H54" t="b">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>10</v>
+      </c>
+      <c r="J54" t="n">
+        <v>1937098941.583306</v>
       </c>
     </row>
     <row r="55">
@@ -1964,22 +2292,28 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
-        <v>568</v>
+        <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>8888305163.129538</v>
+        <v>3222947084.614324</v>
       </c>
       <c r="F55" t="n">
-        <v>0.004145768844443085</v>
-      </c>
-      <c r="G55" t="b">
-        <v>1</v>
-      </c>
-      <c r="H55" t="n">
-        <v>10</v>
+        <v>0.2164679965256336</v>
+      </c>
+      <c r="G55" t="n">
+        <v>0.02538523394688604</v>
+      </c>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>8</v>
+      </c>
+      <c r="J55" t="n">
+        <v>1611473482.773786</v>
       </c>
     </row>
     <row r="56">
@@ -1992,22 +2326,28 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
-        <v>467</v>
+        <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>6362680706.683377</v>
+        <v>1423863386.698509</v>
       </c>
       <c r="F56" t="n">
-        <v>0.002020964619518335</v>
-      </c>
-      <c r="G56" t="b">
-        <v>1</v>
-      </c>
-      <c r="H56" t="n">
-        <v>4</v>
+        <v>0.1572936632138646</v>
+      </c>
+      <c r="G56" t="n">
+        <v>0.05832888376893661</v>
+      </c>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>711931746.6662437</v>
       </c>
     </row>
     <row r="57">
@@ -2020,22 +2360,28 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
-        <v>475</v>
+        <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>7431430261.999914</v>
+        <v>4573805218.790596</v>
       </c>
       <c r="F57" t="n">
-        <v>0.00346940678771203</v>
-      </c>
-      <c r="G57" t="b">
-        <v>0</v>
-      </c>
-      <c r="H57" t="n">
-        <v>7</v>
+        <v>0.183475646501244</v>
+      </c>
+      <c r="G57" t="n">
+        <v>0.02360688645994878</v>
+      </c>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>10</v>
+      </c>
+      <c r="J57" t="n">
+        <v>2286902745.699581</v>
       </c>
     </row>
     <row r="58">
@@ -2048,22 +2394,28 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
-        <v>484</v>
+        <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>4832188094.252636</v>
+        <v>1701622374.563663</v>
       </c>
       <c r="F58" t="n">
-        <v>0.002863500711366417</v>
-      </c>
-      <c r="G58" t="b">
-        <v>0</v>
-      </c>
-      <c r="H58" t="n">
-        <v>7</v>
+        <v>0.1358968642376929</v>
+      </c>
+      <c r="G58" t="n">
+        <v>0.02902672009383953</v>
+      </c>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>850811199.8270277</v>
       </c>
     </row>
     <row r="59">
@@ -2076,22 +2428,28 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
-        <v>352</v>
+        <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>6549928214.709133</v>
+        <v>5114967048.206453</v>
       </c>
       <c r="F59" t="n">
-        <v>0.004569753053534253</v>
-      </c>
-      <c r="G59" t="b">
-        <v>0</v>
-      </c>
-      <c r="H59" t="n">
-        <v>4</v>
+        <v>0.09853667869063934</v>
+      </c>
+      <c r="G59" t="n">
+        <v>0.03496518033133581</v>
+      </c>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>9</v>
+      </c>
+      <c r="J59" t="n">
+        <v>2557483446.098462</v>
       </c>
     </row>
     <row r="60">
@@ -2104,22 +2462,28 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
-        <v>424</v>
+        <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>4097926963.488471</v>
+        <v>2914760652.841268</v>
       </c>
       <c r="F60" t="n">
-        <v>0.003760400465214537</v>
-      </c>
-      <c r="G60" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
+        <v>0.1872249283583078</v>
+      </c>
+      <c r="G60" t="n">
+        <v>0.02297222174746247</v>
+      </c>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="n">
+        <v>10</v>
+      </c>
+      <c r="J60" t="n">
+        <v>1457380387.647722</v>
       </c>
     </row>
     <row r="61">
@@ -2135,19 +2499,25 @@
         <v>2</v>
       </c>
       <c r="D61" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>6101481027.016354</v>
+        <v>2669686754.932077</v>
       </c>
       <c r="F61" t="n">
-        <v>0.003962348125201669</v>
-      </c>
-      <c r="G61" t="b">
-        <v>1</v>
-      </c>
-      <c r="H61" t="n">
-        <v>7</v>
+        <v>0.1512839824668068</v>
+      </c>
+      <c r="G61" t="n">
+        <v>0.02431352984116071</v>
+      </c>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="n">
+        <v>11</v>
+      </c>
+      <c r="J61" t="n">
+        <v>1334843388.887975</v>
       </c>
     </row>
     <row r="62">
@@ -2160,22 +2530,28 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>4436156232.241773</v>
+        <v>1276541819.940081</v>
       </c>
       <c r="F62" t="n">
-        <v>0.004071704881255813</v>
-      </c>
-      <c r="G62" t="b">
-        <v>0</v>
-      </c>
-      <c r="H62" t="n">
-        <v>6</v>
+        <v>0.1788393545089485</v>
+      </c>
+      <c r="G62" t="n">
+        <v>0.04905326907308417</v>
+      </c>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>638270859.3218739</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2564,28 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
-        <v>490</v>
+        <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>8089504809.421611</v>
+        <v>3403566480.437704</v>
       </c>
       <c r="F63" t="n">
-        <v>0.003718997311265873</v>
-      </c>
-      <c r="G63" t="b">
-        <v>0</v>
-      </c>
-      <c r="H63" t="n">
-        <v>8</v>
+        <v>0.06501408133783027</v>
+      </c>
+      <c r="G63" t="n">
+        <v>0.02998764019297235</v>
+      </c>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>9</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1701783329.015403</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2598,28 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5124726262.292025</v>
+        <v>3834704296.480585</v>
       </c>
       <c r="F64" t="n">
-        <v>0.004293159755891633</v>
-      </c>
-      <c r="G64" t="b">
-        <v>0</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
+        <v>0.1671916987086923</v>
+      </c>
+      <c r="G64" t="n">
+        <v>0.02842378203180723</v>
+      </c>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>10</v>
+      </c>
+      <c r="J64" t="n">
+        <v>1917352172.255926</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2632,28 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
-        <v>507</v>
+        <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5155013936.631182</v>
+        <v>5705980280.217195</v>
       </c>
       <c r="F65" t="n">
-        <v>0.00553802763108116</v>
-      </c>
-      <c r="G65" t="b">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>7</v>
+        <v>0.1225945590276688</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0.02037400701292572</v>
+      </c>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>12</v>
+      </c>
+      <c r="J65" t="n">
+        <v>2852990056.722223</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2666,28 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5103643592.418282</v>
+        <v>4327354809.637679</v>
       </c>
       <c r="F66" t="n">
-        <v>0.002636154347518794</v>
-      </c>
-      <c r="G66" t="b">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>6</v>
+        <v>0.1401783238486184</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0.05030612262223409</v>
+      </c>
+      <c r="H66" t="b">
+        <v>1</v>
+      </c>
+      <c r="I66" t="n">
+        <v>9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>2163677395.716428</v>
       </c>
     </row>
     <row r="67">
@@ -2300,22 +2700,28 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
-        <v>411</v>
+        <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>5477537041.040968</v>
+        <v>2978132057.031316</v>
       </c>
       <c r="F67" t="n">
-        <v>0.00536335039139916</v>
-      </c>
-      <c r="G67" t="b">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>7</v>
+        <v>0.06237538376331108</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0.04831790088845551</v>
+      </c>
+      <c r="H67" t="b">
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>1489066048.446701</v>
       </c>
     </row>
     <row r="68">
@@ -2328,22 +2734,28 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
-        <v>462</v>
+        <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>8440496524.198179</v>
+        <v>3843740497.678208</v>
       </c>
       <c r="F68" t="n">
-        <v>0.00305214451352162</v>
-      </c>
-      <c r="G68" t="b">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>7</v>
+        <v>0.09673750315187983</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0.03182465266768504</v>
+      </c>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1921870234.982257</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2768,28 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>4695243862.058455</v>
+        <v>2473301604.94702</v>
       </c>
       <c r="F69" t="n">
-        <v>0.001235907671501659</v>
-      </c>
-      <c r="G69" t="b">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>6</v>
+        <v>0.1563661890255528</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0.05729206766468965</v>
+      </c>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>1236650868.444677</v>
       </c>
     </row>
     <row r="70">
@@ -2384,22 +2802,28 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
-        <v>490</v>
+        <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>5580203628.685246</v>
+        <v>2354068759.189121</v>
       </c>
       <c r="F70" t="n">
-        <v>0.003501112910616458</v>
-      </c>
-      <c r="G70" t="b">
-        <v>0</v>
-      </c>
-      <c r="H70" t="n">
-        <v>8</v>
+        <v>0.09566747201180675</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0.03527797030429844</v>
+      </c>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>9</v>
+      </c>
+      <c r="J70" t="n">
+        <v>1177034314.336303</v>
       </c>
     </row>
     <row r="71">
@@ -2412,22 +2836,28 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
-        <v>474</v>
+        <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3412191815.156781</v>
+        <v>4723510419.910746</v>
       </c>
       <c r="F71" t="n">
-        <v>0.003743390824919322</v>
-      </c>
-      <c r="G71" t="b">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
+        <v>0.1537076605076791</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0.02151055224562617</v>
+      </c>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>12</v>
+      </c>
+      <c r="J71" t="n">
+        <v>2361755294.807102</v>
       </c>
     </row>
     <row r="72">
@@ -2440,22 +2870,28 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
-        <v>460</v>
+        <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>8284124702.767893</v>
+        <v>1427278606.327909</v>
       </c>
       <c r="F72" t="n">
-        <v>0.001770735532374397</v>
-      </c>
-      <c r="G72" t="b">
-        <v>1</v>
-      </c>
-      <c r="H72" t="n">
-        <v>6</v>
+        <v>0.09443881846361822</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0.05138875698243854</v>
+      </c>
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>713639341.723384</v>
       </c>
     </row>
     <row r="73">
@@ -2468,22 +2904,28 @@
         </is>
       </c>
       <c r="C73" t="n">
+        <v>5</v>
+      </c>
+      <c r="D73" t="n">
+        <v>543</v>
+      </c>
+      <c r="E73" t="n">
+        <v>3029637916.132324</v>
+      </c>
+      <c r="F73" t="n">
+        <v>0.1083887521503454</v>
+      </c>
+      <c r="G73" t="n">
+        <v>0.0399100654498721</v>
+      </c>
+      <c r="H73" t="b">
         <v>1</v>
       </c>
-      <c r="D73" t="n">
-        <v>480</v>
-      </c>
-      <c r="E73" t="n">
-        <v>5533335410.803488</v>
-      </c>
-      <c r="F73" t="n">
-        <v>0.001301118625058616</v>
-      </c>
-      <c r="G73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>7</v>
+      <c r="I73" t="n">
+        <v>12</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1514818951.15712</v>
       </c>
     </row>
     <row r="74">
@@ -2496,22 +2938,28 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4688778478.412916</v>
+        <v>4012032119.288504</v>
       </c>
       <c r="F74" t="n">
-        <v>0.003743448803164905</v>
-      </c>
-      <c r="G74" t="b">
-        <v>0</v>
-      </c>
-      <c r="H74" t="n">
-        <v>8</v>
+        <v>0.1740265313700614</v>
+      </c>
+      <c r="G74" t="n">
+        <v>0.03471665374904562</v>
+      </c>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>11</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2006016037.387203</v>
       </c>
     </row>
     <row r="75">
@@ -2524,22 +2972,28 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
-        <v>441</v>
+        <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>7456907952.940635</v>
+        <v>1934246180.351171</v>
       </c>
       <c r="F75" t="n">
-        <v>0.003183752902456317</v>
-      </c>
-      <c r="G75" t="b">
-        <v>0</v>
-      </c>
-      <c r="H75" t="n">
-        <v>6</v>
+        <v>0.1353654465906852</v>
+      </c>
+      <c r="G75" t="n">
+        <v>0.02439562635941369</v>
+      </c>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>967123060.3022798</v>
       </c>
     </row>
     <row r="76">
@@ -2552,22 +3006,28 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
-        <v>459</v>
+        <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5321889857.322452</v>
+        <v>3896596309.572692</v>
       </c>
       <c r="F76" t="n">
-        <v>0.002178450972354358</v>
-      </c>
-      <c r="G76" t="b">
-        <v>0</v>
-      </c>
-      <c r="H76" t="n">
+        <v>0.07646870535721963</v>
+      </c>
+      <c r="G76" t="n">
+        <v>0.02095228574735816</v>
+      </c>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
         <v>7</v>
+      </c>
+      <c r="J76" t="n">
+        <v>1948298134.99071</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +3040,28 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
-        <v>576</v>
+        <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>7567845769.798312</v>
+        <v>1768561217.966238</v>
       </c>
       <c r="F77" t="n">
-        <v>0.005701493740408234</v>
-      </c>
-      <c r="G77" t="b">
-        <v>1</v>
-      </c>
-      <c r="H77" t="n">
-        <v>12</v>
+        <v>0.1410096998443075</v>
+      </c>
+      <c r="G77" t="n">
+        <v>0.02461883625864777</v>
+      </c>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>884280636.132252</v>
       </c>
     </row>
     <row r="78">
@@ -2608,22 +3074,28 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
-        <v>454</v>
+        <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>6545120553.113021</v>
+        <v>3171188153.139802</v>
       </c>
       <c r="F78" t="n">
-        <v>0.004421070902364541</v>
-      </c>
-      <c r="G78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>7</v>
+        <v>0.1275222500726603</v>
+      </c>
+      <c r="G78" t="n">
+        <v>0.04358453558554507</v>
+      </c>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>11</v>
+      </c>
+      <c r="J78" t="n">
+        <v>1585594101.445302</v>
       </c>
     </row>
     <row r="79">
@@ -2636,22 +3108,28 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>7614882660.980189</v>
+        <v>1754669886.896911</v>
       </c>
       <c r="F79" t="n">
-        <v>0.001707075679199839</v>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="n">
-        <v>6</v>
+        <v>0.1566989712913238</v>
+      </c>
+      <c r="G79" t="n">
+        <v>0.02589689088256511</v>
+      </c>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>877335021.9824444</v>
       </c>
     </row>
     <row r="80">
@@ -2664,22 +3142,28 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
-        <v>573</v>
+        <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>6653030142.939449</v>
+        <v>4732609080.786051</v>
       </c>
       <c r="F80" t="n">
-        <v>0.003230672328564699</v>
-      </c>
-      <c r="G80" t="b">
-        <v>0</v>
-      </c>
-      <c r="H80" t="n">
-        <v>13</v>
+        <v>0.08661206344876947</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.03746463928955785</v>
+      </c>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>7</v>
+      </c>
+      <c r="J80" t="n">
+        <v>2366304576.101458</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +3176,28 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
-        <v>427</v>
+        <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5625564390.986646</v>
+        <v>4404436489.732243</v>
       </c>
       <c r="F81" t="n">
-        <v>0.004287631898721318</v>
-      </c>
-      <c r="G81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H81" t="n">
-        <v>6</v>
+        <v>0.08334341001359385</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.02157385273248533</v>
+      </c>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>7</v>
+      </c>
+      <c r="J81" t="n">
+        <v>2202218222.879084</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +3210,28 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>8386378688.865501</v>
+        <v>3446803980.105863</v>
       </c>
       <c r="F82" t="n">
-        <v>0.004736120238512271</v>
-      </c>
-      <c r="G82" t="b">
-        <v>1</v>
-      </c>
-      <c r="H82" t="n">
-        <v>5</v>
+        <v>0.1355416699290888</v>
+      </c>
+      <c r="G82" t="n">
+        <v>0.02661442969421086</v>
+      </c>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="n">
+        <v>11</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1723402060.523687</v>
       </c>
     </row>
     <row r="83">
@@ -2751,19 +3247,25 @@
         <v>2</v>
       </c>
       <c r="D83" t="n">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>9650469999.008383</v>
+        <v>2057657821.500669</v>
       </c>
       <c r="F83" t="n">
-        <v>0.003112535142807101</v>
-      </c>
-      <c r="G83" t="b">
-        <v>0</v>
-      </c>
-      <c r="H83" t="n">
-        <v>8</v>
+        <v>0.1586855700318826</v>
+      </c>
+      <c r="G83" t="n">
+        <v>0.03626047625876058</v>
+      </c>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1028828903.001757</v>
       </c>
     </row>
     <row r="84">
@@ -2776,22 +3278,28 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
-        <v>524</v>
+        <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>6521365391.885183</v>
+        <v>1637274136.269502</v>
       </c>
       <c r="F84" t="n">
-        <v>0.004876134179142568</v>
-      </c>
-      <c r="G84" t="b">
-        <v>0</v>
-      </c>
-      <c r="H84" t="n">
-        <v>9</v>
+        <v>0.0800753597457914</v>
+      </c>
+      <c r="G84" t="n">
+        <v>0.04642340047557845</v>
+      </c>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>818637126.0637866</v>
       </c>
     </row>
     <row r="85">
@@ -2804,22 +3312,28 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
-        <v>512</v>
+        <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>5325739942.011033</v>
+        <v>3006220786.104232</v>
       </c>
       <c r="F85" t="n">
-        <v>0.003821292056701967</v>
-      </c>
-      <c r="G85" t="b">
-        <v>0</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
+        <v>0.1719551041124977</v>
+      </c>
+      <c r="G85" t="n">
+        <v>0.05046772525900748</v>
+      </c>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>12</v>
+      </c>
+      <c r="J85" t="n">
+        <v>1503110453.720622</v>
       </c>
     </row>
     <row r="86">
@@ -2832,22 +3346,28 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
-        <v>517</v>
+        <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>5946565914.957723</v>
+        <v>2310816582.653059</v>
       </c>
       <c r="F86" t="n">
-        <v>0.002296895070042238</v>
-      </c>
-      <c r="G86" t="b">
-        <v>0</v>
-      </c>
-      <c r="H86" t="n">
-        <v>9</v>
+        <v>0.1350548868854999</v>
+      </c>
+      <c r="G86" t="n">
+        <v>0.02558282529458512</v>
+      </c>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="n">
+        <v>2</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1155408361.974767</v>
       </c>
     </row>
     <row r="87">
@@ -2863,19 +3383,25 @@
         <v>3</v>
       </c>
       <c r="D87" t="n">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>3330699241.537758</v>
+        <v>1108414341.601578</v>
       </c>
       <c r="F87" t="n">
-        <v>0.001638155218974945</v>
-      </c>
-      <c r="G87" t="b">
-        <v>0</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
+        <v>0.1696898023121235</v>
+      </c>
+      <c r="G87" t="n">
+        <v>0.030416542264905</v>
+      </c>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>554207202.7218</v>
       </c>
     </row>
     <row r="88">
@@ -2888,22 +3414,28 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>9376091372.396955</v>
+        <v>2733527158.054059</v>
       </c>
       <c r="F88" t="n">
-        <v>0.003961933258325717</v>
-      </c>
-      <c r="G88" t="b">
-        <v>0</v>
-      </c>
-      <c r="H88" t="n">
-        <v>7</v>
+        <v>0.1384681529969458</v>
+      </c>
+      <c r="G88" t="n">
+        <v>0.02662336514526902</v>
+      </c>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="n">
+        <v>13</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1366763582.946624</v>
       </c>
     </row>
     <row r="89">
@@ -2916,22 +3448,28 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
-        <v>473</v>
+        <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>7068090542.722425</v>
+        <v>3240455478.942532</v>
       </c>
       <c r="F89" t="n">
-        <v>0.005154075544509376</v>
-      </c>
-      <c r="G89" t="b">
-        <v>0</v>
-      </c>
-      <c r="H89" t="n">
-        <v>7</v>
+        <v>0.1349298856876487</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.03948523337360599</v>
+      </c>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="n">
+        <v>11</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1620227759.75075</v>
       </c>
     </row>
     <row r="90">
@@ -2944,22 +3482,28 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
-        <v>433</v>
+        <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>5852333018.426005</v>
+        <v>2164804483.094942</v>
       </c>
       <c r="F90" t="n">
-        <v>0.003459320805813443</v>
-      </c>
-      <c r="G90" t="b">
-        <v>0</v>
-      </c>
-      <c r="H90" t="n">
-        <v>6</v>
+        <v>0.08920566937572177</v>
+      </c>
+      <c r="G90" t="n">
+        <v>0.04848451133977343</v>
+      </c>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1082402341.811694</v>
       </c>
     </row>
     <row r="91">
@@ -2972,22 +3516,28 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
-        <v>556</v>
+        <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>5033962570.672218</v>
+        <v>1870543607.833397</v>
       </c>
       <c r="F91" t="n">
-        <v>0.004527756611346029</v>
-      </c>
-      <c r="G91" t="b">
-        <v>0</v>
-      </c>
-      <c r="H91" t="n">
-        <v>10</v>
+        <v>0.1502104654316188</v>
+      </c>
+      <c r="G91" t="n">
+        <v>0.05390035050413108</v>
+      </c>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>935271793.2333237</v>
       </c>
     </row>
     <row r="92">
@@ -3000,22 +3550,28 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
-        <v>534</v>
+        <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>3848911455.189158</v>
+        <v>2475994667.87677</v>
       </c>
       <c r="F92" t="n">
-        <v>0.00322599414631996</v>
-      </c>
-      <c r="G92" t="b">
-        <v>0</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
+        <v>0.08936232289257576</v>
+      </c>
+      <c r="G92" t="n">
+        <v>0.0315584622056452</v>
+      </c>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="n">
+        <v>9</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1237997315.890834</v>
       </c>
     </row>
     <row r="93">
@@ -3028,22 +3584,28 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
-        <v>588</v>
+        <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5401022507.555296</v>
+        <v>4785408059.055426</v>
       </c>
       <c r="F93" t="n">
-        <v>0.001563178059977116</v>
-      </c>
-      <c r="G93" t="b">
-        <v>0</v>
-      </c>
-      <c r="H93" t="n">
-        <v>11</v>
+        <v>0.09626797305708583</v>
+      </c>
+      <c r="G93" t="n">
+        <v>0.05323866436276301</v>
+      </c>
+      <c r="H93" t="b">
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>9</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2392703979.144999</v>
       </c>
     </row>
     <row r="94">
@@ -3059,19 +3621,25 @@
         <v>4</v>
       </c>
       <c r="D94" t="n">
-        <v>588</v>
+        <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>6258804555.639452</v>
+        <v>2451690725.529145</v>
       </c>
       <c r="F94" t="n">
-        <v>0.001110804057702264</v>
-      </c>
-      <c r="G94" t="b">
-        <v>1</v>
-      </c>
-      <c r="H94" t="n">
-        <v>10</v>
+        <v>0.1524943394007838</v>
+      </c>
+      <c r="G94" t="n">
+        <v>0.02628033746667055</v>
+      </c>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1225845419.743007</v>
       </c>
     </row>
     <row r="95">
@@ -3084,22 +3652,28 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
-        <v>511</v>
+        <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>7954144995.023389</v>
+        <v>2191642361.967928</v>
       </c>
       <c r="F95" t="n">
-        <v>0.002139325979096812</v>
-      </c>
-      <c r="G95" t="b">
-        <v>0</v>
-      </c>
-      <c r="H95" t="n">
+        <v>0.08943516269375389</v>
+      </c>
+      <c r="G95" t="n">
+        <v>0.05268979862095548</v>
+      </c>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="n">
         <v>8</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1095821239.279682</v>
       </c>
     </row>
     <row r="96">
@@ -3112,22 +3686,28 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
-        <v>520</v>
+        <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>7045494557.098673</v>
+        <v>2221821273.717221</v>
       </c>
       <c r="F96" t="n">
-        <v>0.003394632995986989</v>
-      </c>
-      <c r="G96" t="b">
-        <v>1</v>
-      </c>
-      <c r="H96" t="n">
-        <v>8</v>
+        <v>0.1238073758796371</v>
+      </c>
+      <c r="G96" t="n">
+        <v>0.0309785402350144</v>
+      </c>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1110910599.976369</v>
       </c>
     </row>
     <row r="97">
@@ -3143,19 +3723,25 @@
         <v>5</v>
       </c>
       <c r="D97" t="n">
-        <v>514</v>
+        <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>8017670239.300297</v>
+        <v>4792166305.017464</v>
       </c>
       <c r="F97" t="n">
-        <v>0.004346660269498041</v>
-      </c>
-      <c r="G97" t="b">
-        <v>1</v>
-      </c>
-      <c r="H97" t="n">
-        <v>8</v>
+        <v>0.1216683612107117</v>
+      </c>
+      <c r="G97" t="n">
+        <v>0.01814002323120977</v>
+      </c>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>11</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2396083272.389723</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3754,28 @@
         </is>
       </c>
       <c r="C98" t="n">
+        <v>3</v>
+      </c>
+      <c r="D98" t="n">
+        <v>453</v>
+      </c>
+      <c r="E98" t="n">
+        <v>3645110398.597798</v>
+      </c>
+      <c r="F98" t="n">
+        <v>0.129114943203476</v>
+      </c>
+      <c r="G98" t="n">
+        <v>0.03137211898004983</v>
+      </c>
+      <c r="H98" t="b">
         <v>1</v>
       </c>
-      <c r="D98" t="n">
-        <v>616</v>
-      </c>
-      <c r="E98" t="n">
-        <v>8619320328.51734</v>
-      </c>
-      <c r="F98" t="n">
-        <v>0.004730763865617711</v>
-      </c>
-      <c r="G98" t="b">
-        <v>1</v>
-      </c>
-      <c r="H98" t="n">
-        <v>12</v>
+      <c r="I98" t="n">
+        <v>8</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1822555227.577891</v>
       </c>
     </row>
     <row r="99">
@@ -3196,22 +3788,28 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
-        <v>567</v>
+        <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3462343799.872752</v>
+        <v>2629220974.188766</v>
       </c>
       <c r="F99" t="n">
-        <v>0.003787391362640296</v>
-      </c>
-      <c r="G99" t="b">
-        <v>0</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
+        <v>0.1480444486375563</v>
+      </c>
+      <c r="G99" t="n">
+        <v>0.03487872050445465</v>
+      </c>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="n">
+        <v>10</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1314610445.934216</v>
       </c>
     </row>
     <row r="100">
@@ -3224,22 +3822,28 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
-        <v>422</v>
+        <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3902853302.982439</v>
+        <v>4530617216.817585</v>
       </c>
       <c r="F100" t="n">
-        <v>0.002291916903368757</v>
-      </c>
-      <c r="G100" t="b">
-        <v>0</v>
-      </c>
-      <c r="H100" t="n">
-        <v>2</v>
+        <v>0.1739427774663884</v>
+      </c>
+      <c r="G100" t="n">
+        <v>0.02222956587911599</v>
+      </c>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>10</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2265308721.256932</v>
       </c>
     </row>
     <row r="101">
@@ -3252,22 +3856,28 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
-        <v>573</v>
+        <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>6521549635.602486</v>
+        <v>3024581956.82036</v>
       </c>
       <c r="F101" t="n">
-        <v>0.001435992950703253</v>
-      </c>
-      <c r="G101" t="b">
-        <v>0</v>
-      </c>
-      <c r="H101" t="n">
-        <v>10</v>
+        <v>0.1772310065823549</v>
+      </c>
+      <c r="G101" t="n">
+        <v>0.03723596252538015</v>
+      </c>
+      <c r="H101" t="b">
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>13</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1512291070.530432</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_32.xlsx
+++ b/output/fit_clients/fit_round_32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -496,22 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2035855722.529593</v>
+        <v>2209908834.594953</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07847487440421773</v>
+        <v>0.0820232800986372</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03340205681471778</v>
+        <v>0.03348791358474172</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1017927861.58174</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1664799067.551564</v>
+        <v>2247551835.204504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1132941477056274</v>
+        <v>0.1153917650793837</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03614463165092654</v>
+        <v>0.04578074929258983</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" t="n">
-        <v>832399521.666232</v>
       </c>
     </row>
     <row r="4">
@@ -558,28 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4653787337.651642</v>
+        <v>3389535240.150214</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1568939949974919</v>
+        <v>0.1226541066453585</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03612512536311391</v>
+        <v>0.02581689207739492</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2326893729.123659</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3906880835.560723</v>
+        <v>3097783754.846252</v>
       </c>
       <c r="F5" t="n">
-        <v>0.09250735913774973</v>
+        <v>0.101145272594267</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04441496904056318</v>
+        <v>0.03899878788669865</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>11</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1953440427.507127</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2082975232.825372</v>
+        <v>2519352141.8394</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1401953119247966</v>
+        <v>0.1227448503008698</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04993464987115485</v>
+        <v>0.0559078228668492</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>5</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1041487636.806509</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2481773912.273063</v>
+        <v>2573177026.95197</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07571123981492371</v>
+        <v>0.1000992872553</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04320385701999599</v>
+        <v>0.04372535250630143</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>9</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1240886970.72468</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2579971112.079875</v>
+        <v>2951809821.098961</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1847256064362709</v>
+        <v>0.2159276815491804</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02201195503913845</v>
+        <v>0.02716649858166722</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>10</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1289985570.429878</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1720585964.444154</v>
+        <v>2021289244.110404</v>
       </c>
       <c r="F9" t="n">
-        <v>0.150269447817321</v>
+        <v>0.1412764443808149</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02711094187267012</v>
+        <v>0.02380150786689823</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>860293047.38451</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3707797705.270058</v>
+        <v>5056151949.561941</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1560175048987802</v>
+        <v>0.1656128349645377</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04345790282361706</v>
+        <v>0.04609989565047554</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>14</v>
-      </c>
-      <c r="J10" t="n">
-        <v>1853898851.710056</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3616679387.240036</v>
+        <v>4226456860.158367</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1643631665935729</v>
+        <v>0.1557260046383417</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04472610785486914</v>
+        <v>0.04796898097531084</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>13</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1808339679.406919</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2492874757.602383</v>
+        <v>2018640849.818507</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1443683892920283</v>
+        <v>0.148604271253822</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04335169480776068</v>
+        <v>0.03880530011819527</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>10</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1246437350.180476</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4116043078.202902</v>
+        <v>4272071857.691513</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06165026876985186</v>
+        <v>0.0874123871373258</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03096669165269396</v>
+        <v>0.0303395568042304</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>11</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2058021587.944589</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3059860644.36678</v>
+        <v>3894533014.540388</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1453268625036101</v>
+        <v>0.1339336491403343</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03799781781242464</v>
+        <v>0.03153540552945722</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>10</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1529930352.10799</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1217108879.087822</v>
+        <v>1132829727.627623</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08154469126143654</v>
+        <v>0.08848421098792122</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03739762438941785</v>
+        <v>0.03331772953626791</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>608554460.7178015</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2306121762.545278</v>
+        <v>1782178353.911565</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1037622739061059</v>
+        <v>0.09129161908987327</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04583725823523487</v>
+        <v>0.04717454649198023</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>4</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1153060929.226028</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>5225495349.184966</v>
+        <v>4906557529.55834</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1072678089754548</v>
+        <v>0.1608675335522268</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04980751362445813</v>
+        <v>0.041320032918622</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>9</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2612747648.434487</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4008232169.742536</v>
+        <v>3382952506.957665</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1465890545262724</v>
+        <v>0.1176179964288993</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02859767254086768</v>
+        <v>0.02134978646646012</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>10</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2004116041.93326</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>961341911.3723496</v>
+        <v>1116153659.348514</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1694431400005287</v>
+        <v>0.1704697895555644</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02290438764079306</v>
+        <v>0.01725273469308676</v>
       </c>
       <c r="H19" t="b">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>480670975.3808559</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2159193009.007239</v>
+        <v>1764683514.657784</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1295222978305929</v>
+        <v>0.1360585894667975</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02278291309606175</v>
+        <v>0.02601610658498924</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>4</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1079596513.70717</v>
       </c>
     </row>
     <row r="21">
@@ -1142,22 +1018,16 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2288710803.269938</v>
+        <v>2051907715.963272</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09884519213818224</v>
+        <v>0.09994174709739784</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03071496897548553</v>
+        <v>0.03507442640048078</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1144355409.789792</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3237123957.454753</v>
+        <v>2807861947.253659</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1104846391774059</v>
+        <v>0.121900974020979</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03561636890959397</v>
+        <v>0.04525167650347765</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>9</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1618562025.866474</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1024977500.666043</v>
+        <v>1550399252.913045</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1801295432556898</v>
+        <v>0.1195730984585686</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04093153698155069</v>
+        <v>0.04367204292132416</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>512488816.1542101</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2825196233.41714</v>
+        <v>3837827300.252119</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1152442232104772</v>
+        <v>0.124857861717617</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03457091684441345</v>
+        <v>0.03422713416063725</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>9</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1412598163.544313</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1239010315.929629</v>
+        <v>1356851790.807729</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1104221461005611</v>
+        <v>0.1150112837231597</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02799410030365669</v>
+        <v>0.02506308627772793</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>619505166.7633767</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1219859338.685377</v>
+        <v>1071918591.483794</v>
       </c>
       <c r="F26" t="n">
-        <v>0.107254285537898</v>
+        <v>0.1219634719330641</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03341591334126589</v>
+        <v>0.03042250133598673</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>609929695.08508</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3158676604.412745</v>
+        <v>3479983860.521978</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1049878764993512</v>
+        <v>0.1540126561941578</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02469552333419261</v>
+        <v>0.02621409317015306</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>7</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1579338353.953329</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2864340792.891727</v>
+        <v>3222155452.23461</v>
       </c>
       <c r="F28" t="n">
-        <v>0.104804437592916</v>
+        <v>0.1051205267742475</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03095503824026442</v>
+        <v>0.0494565915320181</v>
       </c>
       <c r="H28" t="b">
         <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>9</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1432170395.739035</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4613105740.217238</v>
+        <v>3825642326.478454</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1032016227945994</v>
+        <v>0.1044295743241047</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0422869512557893</v>
+        <v>0.04067320807617435</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>14</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2306552844.245814</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2349567673.758092</v>
+        <v>2123224315.421204</v>
       </c>
       <c r="F30" t="n">
-        <v>0.101497138791272</v>
+        <v>0.1027463806093072</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02632455448338039</v>
+        <v>0.02907276439151023</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>1174783913.930362</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1024129334.269774</v>
+        <v>1099476564.856597</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1122570487980942</v>
+        <v>0.0966640298477278</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03482950459340435</v>
+        <v>0.05004900292996707</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>512064659.7789832</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1247668802.953129</v>
+        <v>1791738393.253735</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1003330195014339</v>
+        <v>0.08279628575260435</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02425699552472223</v>
+        <v>0.02844305794993758</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>623834417.3601807</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2634798474.651388</v>
+        <v>2053663011.029061</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1334437785063946</v>
+        <v>0.1468712958527881</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05872406824299797</v>
+        <v>0.04410316454871868</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>9</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1317399263.869936</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1584,22 +1382,16 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1365369415.078928</v>
+        <v>1511832622.528643</v>
       </c>
       <c r="F34" t="n">
-        <v>0.07530100353660979</v>
+        <v>0.08891408860451558</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02353254430234921</v>
+        <v>0.02041887645962898</v>
       </c>
       <c r="H34" t="b">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>682684685.227049</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1128502954.384279</v>
+        <v>957117472.5240684</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1032004903590277</v>
+        <v>0.1006949276160233</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03002803982764063</v>
+        <v>0.03776187748917081</v>
       </c>
       <c r="H35" t="b">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>564251467.3862953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2343015322.833494</v>
+        <v>2957243664.350583</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1283122520894712</v>
+        <v>0.1520292600838112</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02472264514385078</v>
+        <v>0.02683001963934367</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>8</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1171507695.794081</v>
       </c>
     </row>
     <row r="37">
@@ -1686,22 +1466,16 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1933971847.571236</v>
+        <v>2782070970.943845</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1041870454269984</v>
+        <v>0.06863778075213586</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03409307318085698</v>
+        <v>0.03632938307255863</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>7</v>
-      </c>
-      <c r="J37" t="n">
-        <v>966985941.7834407</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1759743376.903953</v>
+        <v>1330892896.510602</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09598108997115118</v>
+        <v>0.09723895523185604</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02767960674006874</v>
+        <v>0.02499876404932761</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>879871700.8244966</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1923613912.019282</v>
+        <v>1504030990.657704</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1322297207143891</v>
+        <v>0.1940720204585703</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02631170200487566</v>
+        <v>0.02130072324297472</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>961806961.9709612</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1691728573.178835</v>
+        <v>1811606765.103609</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1269606048702739</v>
+        <v>0.1163825487130242</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03876079309665082</v>
+        <v>0.04495775870245321</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>845864204.6110164</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2278092504.817128</v>
+        <v>2577935611.937943</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1662174684830294</v>
+        <v>0.1515295169227477</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04347210504415151</v>
+        <v>0.03448717795166625</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>10</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1139046299.236078</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3190127440.629928</v>
+        <v>3223561687.922199</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1019627848095371</v>
+        <v>0.120846982735759</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04557179367654567</v>
+        <v>0.04625084227142964</v>
       </c>
       <c r="H42" t="b">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>10</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1595063693.61052</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2593839347.054991</v>
+        <v>2854322476.661292</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1814301748176919</v>
+        <v>0.1633909326775881</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02154564289510935</v>
+        <v>0.01999047766041483</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>9</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1296919712.553008</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2364526152.506269</v>
+        <v>1545256012.306675</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08953847602252669</v>
+        <v>0.08235889393245925</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03281183912080961</v>
+        <v>0.02552403481918474</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>1182263255.128785</v>
       </c>
     </row>
     <row r="45">
@@ -1958,22 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2525278534.492983</v>
+        <v>2017565245.995579</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1253241618888667</v>
+        <v>0.1239281399333316</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04418896276191109</v>
+        <v>0.04349136633684782</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1262639310.834532</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5645105819.779646</v>
+        <v>5017317303.936468</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1471737014041286</v>
+        <v>0.1636919061552457</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0547066693204885</v>
+        <v>0.0531673508872437</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2822552973.448449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3225990781.339474</v>
+        <v>4880191729.897985</v>
       </c>
       <c r="F47" t="n">
-        <v>0.147270000583936</v>
+        <v>0.1917459769805132</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05875272510812241</v>
+        <v>0.05221563720560889</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1612995345.696169</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4286404850.420619</v>
+        <v>4727771507.667614</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09206196409935087</v>
+        <v>0.08647495817967853</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02782693797028176</v>
+        <v>0.03121409812601286</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2143202442.772918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2094,22 +1802,16 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1777864492.247181</v>
+        <v>1360994399.16915</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1518278330635625</v>
+        <v>0.1818185958632358</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02796132374812865</v>
+        <v>0.02965451815939123</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>888932234.7360312</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2741555326.515296</v>
+        <v>3839510922.487956</v>
       </c>
       <c r="F50" t="n">
-        <v>0.174218983774075</v>
+        <v>0.1601719820981986</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0439219403035104</v>
+        <v>0.04049265463749831</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1370777741.295575</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1163244568.933914</v>
+        <v>1077424087.591033</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1226680513522441</v>
+        <v>0.1242160347102907</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04222916042208036</v>
+        <v>0.03932750998699489</v>
       </c>
       <c r="H51" t="b">
-        <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>581622341.7809381</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3233812345.618389</v>
+        <v>4156705667.696393</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1062176045621762</v>
+        <v>0.1285504585830406</v>
       </c>
       <c r="G52" t="n">
-        <v>0.06048028794205089</v>
+        <v>0.03819605430646585</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>13</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1616906274.186163</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3674048412.655793</v>
+        <v>2778339803.882341</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1373079687535295</v>
+        <v>0.1232512052471013</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03331657101381727</v>
+        <v>0.03058330502055192</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>9</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1837024191.995488</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3874197775.170439</v>
+        <v>4430720637.34162</v>
       </c>
       <c r="F54" t="n">
-        <v>0.103856707062574</v>
+        <v>0.1181927059443576</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04653089480824284</v>
+        <v>0.04982730114394398</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>10</v>
-      </c>
-      <c r="J54" t="n">
-        <v>1937098941.583306</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3222947084.614324</v>
+        <v>3274744953.028011</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2164679965256336</v>
+        <v>0.1707438995572055</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02538523394688604</v>
+        <v>0.02004278640181025</v>
       </c>
       <c r="H55" t="b">
         <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>8</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1611473482.773786</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1423863386.698509</v>
+        <v>1469946381.858842</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1572936632138646</v>
+        <v>0.1562624990173016</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05832888376893661</v>
+        <v>0.04333314340294347</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>711931746.6662437</v>
       </c>
     </row>
     <row r="57">
@@ -2360,28 +2020,22 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4573805218.790596</v>
+        <v>4204078193.706034</v>
       </c>
       <c r="F57" t="n">
-        <v>0.183475646501244</v>
+        <v>0.1388118578329688</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02360688645994878</v>
+        <v>0.02357245205159154</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>10</v>
-      </c>
-      <c r="J57" t="n">
-        <v>2286902745.699581</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1701622374.563663</v>
+        <v>1886244261.146502</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1358968642376929</v>
+        <v>0.1478643139741793</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02902672009383953</v>
+        <v>0.02803886398036089</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>850811199.8270277</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5114967048.206453</v>
+        <v>5355251316.523979</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09853667869063934</v>
+        <v>0.1083833504251756</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03496518033133581</v>
+        <v>0.03433690256942983</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>9</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2557483446.098462</v>
       </c>
     </row>
     <row r="60">
@@ -2468,22 +2110,16 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2914760652.841268</v>
+        <v>2347614271.421108</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1872249283583078</v>
+        <v>0.143755905370724</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02297222174746247</v>
+        <v>0.02278134566873289</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>10</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1457380387.647722</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2669686754.932077</v>
+        <v>2992455489.146991</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1512839824668068</v>
+        <v>0.1188445872672935</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02431352984116071</v>
+        <v>0.02966556866356333</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>11</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1334843388.887975</v>
       </c>
     </row>
     <row r="62">
@@ -2536,22 +2166,16 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1276541819.940081</v>
+        <v>1572904604.788018</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1788393545089485</v>
+        <v>0.1870090500367615</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04905326907308417</v>
+        <v>0.04790678130033956</v>
       </c>
       <c r="H62" t="b">
-        <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>638270859.3218739</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3403566480.437704</v>
+        <v>5561822948.34138</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06501408133783027</v>
+        <v>0.07213340304316974</v>
       </c>
       <c r="G63" t="n">
-        <v>0.02998764019297235</v>
+        <v>0.04460022933536877</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>9</v>
-      </c>
-      <c r="J63" t="n">
-        <v>1701783329.015403</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3834704296.480585</v>
+        <v>4139853272.245486</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1671916987086923</v>
+        <v>0.1569690319068321</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02842378203180723</v>
+        <v>0.02501285884673227</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>10</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1917352172.255926</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5705980280.217195</v>
+        <v>4843192196.311113</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1225945590276688</v>
+        <v>0.1061417281766233</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02037400701292572</v>
+        <v>0.02236697213022153</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>12</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2852990056.722223</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4327354809.637679</v>
+        <v>5728294041.120128</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1401783238486184</v>
+        <v>0.1562875004099103</v>
       </c>
       <c r="G66" t="n">
-        <v>0.05030612262223409</v>
+        <v>0.04400995667691703</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>9</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2163677395.716428</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2978132057.031316</v>
+        <v>3282659894.086384</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06237538376331108</v>
+        <v>0.07699799117339859</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04831790088845551</v>
+        <v>0.04297632411139737</v>
       </c>
       <c r="H67" t="b">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>10</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1489066048.446701</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>3843740497.678208</v>
+        <v>4316800703.736213</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09673750315187983</v>
+        <v>0.1021155472663191</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03182465266768504</v>
+        <v>0.03310656104011745</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>10</v>
-      </c>
-      <c r="J68" t="n">
-        <v>1921870234.982257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2473301604.94702</v>
+        <v>1578098511.951278</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1563661890255528</v>
+        <v>0.1786062330162383</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05729206766468965</v>
+        <v>0.05058830098146042</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1236650868.444677</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2808,22 +2390,16 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2354068759.189121</v>
+        <v>3568979850.764314</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09566747201180675</v>
+        <v>0.07071763555070683</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03527797030429844</v>
+        <v>0.03728572191377115</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>9</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1177034314.336303</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4723510419.910746</v>
+        <v>3417631000.616784</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1537076605076791</v>
+        <v>0.1242534374506161</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02151055224562617</v>
+        <v>0.03416687594850676</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>12</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2361755294.807102</v>
       </c>
     </row>
     <row r="72">
@@ -2876,22 +2446,16 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1427278606.327909</v>
+        <v>1897033428.188916</v>
       </c>
       <c r="F72" t="n">
-        <v>0.09443881846361822</v>
+        <v>0.08954317966094237</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05138875698243854</v>
+        <v>0.04751136407865474</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>713639341.723384</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3029637916.132324</v>
+        <v>2574621014.009425</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1083887521503454</v>
+        <v>0.08449719591328002</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0399100654498721</v>
+        <v>0.0474355714689496</v>
       </c>
       <c r="H73" t="b">
         <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>12</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1514818951.15712</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>4012032119.288504</v>
+        <v>2981117065.866025</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1740265313700614</v>
+        <v>0.1134409361951005</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03471665374904562</v>
+        <v>0.0306103717173066</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>11</v>
-      </c>
-      <c r="J74" t="n">
-        <v>2006016037.387203</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1934246180.351171</v>
+        <v>2414767322.973371</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1353654465906852</v>
+        <v>0.1186441732455919</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02439562635941369</v>
+        <v>0.02536397827846483</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>967123060.3022798</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3896596309.572692</v>
+        <v>5004226244.508992</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07646870535721963</v>
+        <v>0.1174478035841001</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02095228574735816</v>
+        <v>0.02643086648225208</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>7</v>
-      </c>
-      <c r="J76" t="n">
-        <v>1948298134.99071</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1768561217.966238</v>
+        <v>2235844648.176309</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1410096998443075</v>
+        <v>0.1442968216054143</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02461883625864777</v>
+        <v>0.02102133395081697</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>884280636.132252</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3171188153.139802</v>
+        <v>4442171283.887716</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1275222500726603</v>
+        <v>0.09008854708971074</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04358453558554507</v>
+        <v>0.03760685641245966</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>11</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1585594101.445302</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1754669886.896911</v>
+        <v>1402331095.460898</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1566989712913238</v>
+        <v>0.1198487396913366</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02589689088256511</v>
+        <v>0.03612720388053203</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>877335021.9824444</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4732609080.786051</v>
+        <v>5360913829.495111</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08661206344876947</v>
+        <v>0.1105853814505977</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03746463928955785</v>
+        <v>0.03665411306455751</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>7</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2366304576.101458</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4404436489.732243</v>
+        <v>4189108732.269949</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08334341001359385</v>
+        <v>0.09520900327955439</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02157385273248533</v>
+        <v>0.02724737516863163</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>7</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2202218222.879084</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3446803980.105863</v>
+        <v>4391205176.602874</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1355416699290888</v>
+        <v>0.1695907067962701</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02661442969421086</v>
+        <v>0.0281014739090821</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>11</v>
-      </c>
-      <c r="J82" t="n">
-        <v>1723402060.523687</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2057657821.500669</v>
+        <v>2389297784.447846</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1586855700318826</v>
+        <v>0.1518132178089301</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03626047625876058</v>
+        <v>0.0412578602481218</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
-      <c r="J83" t="n">
-        <v>1028828903.001757</v>
       </c>
     </row>
     <row r="84">
@@ -3278,28 +2776,22 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1637274136.269502</v>
+        <v>1681004666.092976</v>
       </c>
       <c r="F84" t="n">
-        <v>0.0800753597457914</v>
+        <v>0.09517620903889551</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04642340047557845</v>
+        <v>0.03275172877362097</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
-      <c r="J84" t="n">
-        <v>818637126.0637866</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3006220786.104232</v>
+        <v>3670280941.475656</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1719551041124977</v>
+        <v>0.1143457308434212</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05046772525900748</v>
+        <v>0.04713489952815438</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>12</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1503110453.720622</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2310816582.653059</v>
+        <v>1841247224.173505</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1350548868854999</v>
+        <v>0.1470357376980988</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02558282529458512</v>
+        <v>0.01733748542125143</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>2</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1155408361.974767</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1108414341.601578</v>
+        <v>1015841832.390901</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1696898023121235</v>
+        <v>0.1662580155012517</v>
       </c>
       <c r="G87" t="n">
-        <v>0.030416542264905</v>
+        <v>0.04343011138742307</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>554207202.7218</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2733527158.054059</v>
+        <v>2589883584.466446</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1384681529969458</v>
+        <v>0.1397947840171016</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02662336514526902</v>
+        <v>0.03197381207795315</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>13</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1366763582.946624</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3240455478.942532</v>
+        <v>2476814381.950255</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1349298856876487</v>
+        <v>0.1555109684481092</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03948523337360599</v>
+        <v>0.03755089669410865</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>11</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1620227759.75075</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2164804483.094942</v>
+        <v>1809569060.247383</v>
       </c>
       <c r="F90" t="n">
-        <v>0.08920566937572177</v>
+        <v>0.103838065985697</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04848451133977343</v>
+        <v>0.03504286029320865</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1082402341.811694</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1870543607.833397</v>
+        <v>1349036822.567313</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1502104654316188</v>
+        <v>0.1722936725601233</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05390035050413108</v>
+        <v>0.05957674761363602</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>935271793.2333237</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2475994667.87677</v>
+        <v>2863944985.953556</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08936232289257576</v>
+        <v>0.09496564946027236</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0315584622056452</v>
+        <v>0.04236006110458974</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>9</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1237997315.890834</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4785408059.055426</v>
+        <v>4228394743.826229</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09626797305708583</v>
+        <v>0.0910275819612968</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05323866436276301</v>
+        <v>0.05363395091486459</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>9</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2392703979.144999</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2451690725.529145</v>
+        <v>2404769044.485948</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1524943394007838</v>
+        <v>0.1173463995222455</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02628033746667055</v>
+        <v>0.03558057184485215</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1225845419.743007</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2191642361.967928</v>
+        <v>2912560298.113356</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08943516269375389</v>
+        <v>0.1195906046930461</v>
       </c>
       <c r="G95" t="n">
-        <v>0.05268979862095548</v>
+        <v>0.04551744793179708</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>8</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1095821239.279682</v>
       </c>
     </row>
     <row r="96">
@@ -3686,28 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2221821273.717221</v>
+        <v>2349297618.925974</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1238073758796371</v>
+        <v>0.09927671369155361</v>
       </c>
       <c r="G96" t="n">
-        <v>0.0309785402350144</v>
+        <v>0.03389524175391135</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1110910599.976369</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4792166305.017464</v>
+        <v>5270161039.175028</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1216683612107117</v>
+        <v>0.1423711727172434</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01814002323120977</v>
+        <v>0.02731894913936807</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>11</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2396083272.389723</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3645110398.597798</v>
+        <v>3744303911.543641</v>
       </c>
       <c r="F98" t="n">
-        <v>0.129114943203476</v>
+        <v>0.1013302803400891</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03137211898004983</v>
+        <v>0.03129983197256396</v>
       </c>
       <c r="H98" t="b">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>8</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1822555227.577891</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2629220974.188766</v>
+        <v>3010289672.787654</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1480444486375563</v>
+        <v>0.1124472376298509</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03487872050445465</v>
+        <v>0.03065190815524334</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>10</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1314610445.934216</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4530617216.817585</v>
+        <v>3042813303.249636</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1739427774663884</v>
+        <v>0.1168935980879938</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02222956587911599</v>
+        <v>0.02400075139267382</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>10</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2265308721.256932</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3024581956.82036</v>
+        <v>2681847689.985115</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1772310065823549</v>
+        <v>0.1980956122981106</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03723596252538015</v>
+        <v>0.03836359879107113</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>13</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1512291070.530432</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_32.xlsx
+++ b/output/fit_clients/fit_round_32.xlsx
@@ -480,22 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2209908834.594953</v>
+        <v>1968808383.308815</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0820232800986372</v>
+        <v>0.07052988544056631</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03348791358474172</v>
+        <v>0.03975624308511766</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2247551835.204504</v>
+        <v>1943561989.725292</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1153917650793837</v>
+        <v>0.1839027877579696</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04578074929258983</v>
+        <v>0.04522537973517054</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3389535240.150214</v>
+        <v>4667791094.26869</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1226541066453585</v>
+        <v>0.1547664558125288</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02581689207739492</v>
+        <v>0.02790157420351835</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3097783754.846252</v>
+        <v>2882508347.939079</v>
       </c>
       <c r="F5" t="n">
-        <v>0.101145272594267</v>
+        <v>0.1009932313936537</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03899878788669865</v>
+        <v>0.04125710858060481</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2519352141.8394</v>
+        <v>2650111369.163765</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1227448503008698</v>
+        <v>0.1470670520625935</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0559078228668492</v>
+        <v>0.05233440036937298</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2573177026.95197</v>
+        <v>2323494556.95533</v>
       </c>
       <c r="F7" t="n">
-        <v>0.1000992872553</v>
+        <v>0.08485307787774922</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04372535250630143</v>
+        <v>0.03972785104650623</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -648,19 +648,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2951809821.098961</v>
+        <v>3258345215.246549</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2159276815491804</v>
+        <v>0.1449430446166444</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02716649858166722</v>
+        <v>0.02355509272177566</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2021289244.110404</v>
+        <v>1966987247.594285</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1412764443808149</v>
+        <v>0.1202499257727757</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02380150786689823</v>
+        <v>0.03341611355384919</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5056151949.561941</v>
+        <v>4833200748.79607</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1656128349645377</v>
+        <v>0.2149411451725777</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04609989565047554</v>
+        <v>0.03806304670041356</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>4226456860.158367</v>
+        <v>2714406719.376085</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1557260046383417</v>
+        <v>0.17391221077978</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04796898097531084</v>
+        <v>0.03108837423394988</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -760,19 +760,19 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2018640849.818507</v>
+        <v>2957489652.320272</v>
       </c>
       <c r="F12" t="n">
-        <v>0.148604271253822</v>
+        <v>0.1984448268372549</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03880530011819527</v>
+        <v>0.05108331920550338</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4272071857.691513</v>
+        <v>4507266574.065948</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0874123871373258</v>
+        <v>0.07105409969529686</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0303395568042304</v>
+        <v>0.02185269973279082</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3894533014.540388</v>
+        <v>2781291713.376141</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1339336491403343</v>
+        <v>0.145081781216128</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03153540552945722</v>
+        <v>0.0369219788591402</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1132829727.627623</v>
+        <v>1427266695.363245</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08848421098792122</v>
+        <v>0.06807046312342285</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03331772953626791</v>
+        <v>0.03611541863749287</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1782178353.911565</v>
+        <v>2846833085.57362</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09129161908987327</v>
+        <v>0.07509024676149008</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04717454649198023</v>
+        <v>0.04378868988810983</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,19 +900,19 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4906557529.55834</v>
+        <v>3695492617.348764</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1608675335522268</v>
+        <v>0.1336025989312971</v>
       </c>
       <c r="G17" t="n">
-        <v>0.041320032918622</v>
+        <v>0.04657874646420253</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3382952506.957665</v>
+        <v>2967380847.111995</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1176179964288993</v>
+        <v>0.1132571894241153</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02134978646646012</v>
+        <v>0.02502515251395719</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1116153659.348514</v>
+        <v>1221263547.172467</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1704697895555644</v>
+        <v>0.1192876703266236</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01725273469308676</v>
+        <v>0.01809401471423622</v>
       </c>
       <c r="H19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1764683514.657784</v>
+        <v>2557736373.712734</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1360585894667975</v>
+        <v>0.1433707657852915</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02601610658498924</v>
+        <v>0.02275021222745584</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2051907715.963272</v>
+        <v>1906079432.333282</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09994174709739784</v>
+        <v>0.07139393183653543</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03507442640048078</v>
+        <v>0.04227571393308396</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,22 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2807861947.253659</v>
+        <v>3010811001.604315</v>
       </c>
       <c r="F22" t="n">
-        <v>0.121900974020979</v>
+        <v>0.1005029181530552</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04525167650347765</v>
+        <v>0.05378484988460219</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1550399252.913045</v>
+        <v>1220580073.395081</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1195730984585686</v>
+        <v>0.1384700057465274</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04367204292132416</v>
+        <v>0.05039404459424261</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3837827300.252119</v>
+        <v>2902438881.015005</v>
       </c>
       <c r="F24" t="n">
-        <v>0.124857861717617</v>
+        <v>0.1231780340178542</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03422713416063725</v>
+        <v>0.02453497772115388</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1356851790.807729</v>
+        <v>1391094401.066797</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1150112837231597</v>
+        <v>0.093757905317154</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02506308627772793</v>
+        <v>0.02796056893965717</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1071918591.483794</v>
+        <v>1078115605.348632</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1219634719330641</v>
+        <v>0.0939411464400552</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03042250133598673</v>
+        <v>0.03132820278029814</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,22 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3479983860.521978</v>
+        <v>3638753905.661957</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1540126561941578</v>
+        <v>0.1500153211241894</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02621409317015306</v>
+        <v>0.02417898468128988</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3222155452.23461</v>
+        <v>2743812460.069846</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1051205267742475</v>
+        <v>0.1448782792047769</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0494565915320181</v>
+        <v>0.03151381265168769</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3825642326.478454</v>
+        <v>5115057088.833483</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1044295743241047</v>
+        <v>0.1480958693456619</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04067320807617435</v>
+        <v>0.04589099959583103</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2123224315.421204</v>
+        <v>1522036404.032981</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1027463806093072</v>
+        <v>0.1091741572413057</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02907276439151023</v>
+        <v>0.03199812935330932</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1099476564.856597</v>
+        <v>1256936354.468647</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0966640298477278</v>
+        <v>0.07716227531473181</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05004900292996707</v>
+        <v>0.0330292624569311</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1791738393.253735</v>
+        <v>1804122794.606397</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08279628575260435</v>
+        <v>0.1184172927947525</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02844305794993758</v>
+        <v>0.02436810323563389</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2053663011.029061</v>
+        <v>2162218657.058451</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1468712958527881</v>
+        <v>0.1688229603060853</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04410316454871868</v>
+        <v>0.05770882946033071</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,22 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1511832622.528643</v>
+        <v>1309633066.786849</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08891408860451558</v>
+        <v>0.1143817000258449</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02041887645962898</v>
+        <v>0.02019937945649555</v>
       </c>
       <c r="H34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -1404,22 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>957117472.5240684</v>
+        <v>888024133.8678133</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1006949276160233</v>
+        <v>0.09330023579557024</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03776187748917081</v>
+        <v>0.02752686199575782</v>
       </c>
       <c r="H35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2957243664.350583</v>
+        <v>1994598095.423143</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1520292600838112</v>
+        <v>0.1776493633280809</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02683001963934367</v>
+        <v>0.02351966622540118</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1466,13 +1466,13 @@
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2782070970.943845</v>
+        <v>2827037744.137767</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06863778075213586</v>
+        <v>0.07599616432546535</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03632938307255863</v>
+        <v>0.03607746549381628</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1330892896.510602</v>
+        <v>2142927002.972233</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09723895523185604</v>
+        <v>0.08994341040658593</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02499876404932761</v>
+        <v>0.03495914605690709</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1504030990.657704</v>
+        <v>2041571265.974245</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1940720204585703</v>
+        <v>0.1516465212345659</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02130072324297472</v>
+        <v>0.03071231275764367</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1550,13 +1550,13 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1811606765.103609</v>
+        <v>1437657990.605378</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1163825487130242</v>
+        <v>0.1211215361150696</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04495775870245321</v>
+        <v>0.04672144427874997</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2577935611.937943</v>
+        <v>2341194974.089002</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1515295169227477</v>
+        <v>0.1009201138579393</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03448717795166625</v>
+        <v>0.04140028551912202</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3223561687.922199</v>
+        <v>4050104648.497779</v>
       </c>
       <c r="F42" t="n">
-        <v>0.120846982735759</v>
+        <v>0.08167136143399918</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04625084227142964</v>
+        <v>0.02890311022738767</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,22 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2854322476.661292</v>
+        <v>2012239778.212946</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1633909326775881</v>
+        <v>0.1719490634377859</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01999047766041483</v>
+        <v>0.02419913073659324</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1545256012.306675</v>
+        <v>1543618279.450914</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08235889393245925</v>
+        <v>0.07368176656387235</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02552403481918474</v>
+        <v>0.03209179284087704</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2017565245.995579</v>
+        <v>1809583298.540371</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1239281399333316</v>
+        <v>0.1343779764137349</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04349136633684782</v>
+        <v>0.04753747613252608</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5017317303.936468</v>
+        <v>5568713610.286951</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1636919061552457</v>
+        <v>0.148302784119725</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0531673508872437</v>
+        <v>0.05153274077248056</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4880191729.897985</v>
+        <v>3669426093.885925</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1917459769805132</v>
+        <v>0.1419811875552748</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05221563720560889</v>
+        <v>0.03645690821390672</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4727771507.667614</v>
+        <v>3760722307.677959</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08647495817967853</v>
+        <v>0.08670897322040845</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03121409812601286</v>
+        <v>0.03553934296475046</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1360994399.16915</v>
+        <v>1933161202.964482</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1818185958632358</v>
+        <v>0.1584474982404884</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02965451815939123</v>
+        <v>0.03037474487222256</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3839510922.487956</v>
+        <v>3520153070.732366</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1601719820981986</v>
+        <v>0.1642614159931967</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04049265463749831</v>
+        <v>0.03461110495817363</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1858,16 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1077424087.591033</v>
+        <v>1075025170.254265</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1242160347102907</v>
+        <v>0.1510724753581161</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03932750998699489</v>
+        <v>0.04061742253140044</v>
       </c>
       <c r="H51" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4156705667.696393</v>
+        <v>4525886412.028102</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1285504585830406</v>
+        <v>0.09858417464219101</v>
       </c>
       <c r="G52" t="n">
-        <v>0.03819605430646585</v>
+        <v>0.05888115603947403</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1914,13 +1914,13 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2778339803.882341</v>
+        <v>2725597225.815117</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1232512052471013</v>
+        <v>0.1662986742343231</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03058330502055192</v>
+        <v>0.03445686292837113</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4430720637.34162</v>
+        <v>4918861825.75843</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1181927059443576</v>
+        <v>0.1369825682235959</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04982730114394398</v>
+        <v>0.03359549028202108</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,16 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3274744953.028011</v>
+        <v>3742684038.037726</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1707438995572055</v>
+        <v>0.1595469210318635</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02004278640181025</v>
+        <v>0.02243066097918934</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1469946381.858842</v>
+        <v>1630278203.311625</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1562624990173016</v>
+        <v>0.1438536554193171</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04333314340294347</v>
+        <v>0.03909089316413161</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4204078193.706034</v>
+        <v>4503415218.54696</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1388118578329688</v>
+        <v>0.1351133576826886</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02357245205159154</v>
+        <v>0.026189142589658</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1886244261.146502</v>
+        <v>1834323615.31566</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1478643139741793</v>
+        <v>0.1455763021316099</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02803886398036089</v>
+        <v>0.03907298609339097</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5355251316.523979</v>
+        <v>5240510346.776677</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1083833504251756</v>
+        <v>0.1067027095265425</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03433690256942983</v>
+        <v>0.04590269922136917</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2347614271.421108</v>
+        <v>2952264360.098538</v>
       </c>
       <c r="F60" t="n">
-        <v>0.143755905370724</v>
+        <v>0.1871687316842854</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02278134566873289</v>
+        <v>0.03206869859761183</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,19 +2132,19 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2992455489.146991</v>
+        <v>3193897186.432203</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1188445872672935</v>
+        <v>0.1763247243676207</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02966556866356333</v>
+        <v>0.03106470780391977</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,22 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1572904604.788018</v>
+        <v>1606053293.867955</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1870090500367615</v>
+        <v>0.1675529963772583</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04790678130033956</v>
+        <v>0.03037228834093754</v>
       </c>
       <c r="H62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5561822948.34138</v>
+        <v>5434645970.625873</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07213340304316974</v>
+        <v>0.0905995001480227</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04460022933536877</v>
+        <v>0.03728142212418208</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2222,16 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4139853272.245486</v>
+        <v>4899873847.638099</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1569690319068321</v>
+        <v>0.1333275483255689</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02501285884673227</v>
+        <v>0.03170302914195425</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4843192196.311113</v>
+        <v>4020810693.68826</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1061417281766233</v>
+        <v>0.1497173659168848</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02236697213022153</v>
+        <v>0.02738998027286782</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5728294041.120128</v>
+        <v>4368452222.035732</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1562875004099103</v>
+        <v>0.1611429836531722</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04400995667691703</v>
+        <v>0.03466345556363714</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3282659894.086384</v>
+        <v>3260453486.912228</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07699799117339859</v>
+        <v>0.07450042061981901</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04297632411139737</v>
+        <v>0.03747532412792428</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4316800703.736213</v>
+        <v>4707741424.481493</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1021155472663191</v>
+        <v>0.148703238669669</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03310656104011745</v>
+        <v>0.03584903221818522</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1578098511.951278</v>
+        <v>1560730312.129634</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1786062330162383</v>
+        <v>0.1375785668675819</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05058830098146042</v>
+        <v>0.04330451591942609</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2390,13 +2390,13 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3568979850.764314</v>
+        <v>3413226873.94164</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07071763555070683</v>
+        <v>0.06987954283654048</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03728572191377115</v>
+        <v>0.04000449690310922</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2418,16 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3417631000.616784</v>
+        <v>5012332946.724513</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1242534374506161</v>
+        <v>0.1639489722684095</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03416687594850676</v>
+        <v>0.03220388098188593</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1897033428.188916</v>
+        <v>2036265458.874825</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08954317966094237</v>
+        <v>0.08835595820075981</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04751136407865474</v>
+        <v>0.03501552979650231</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,16 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2574621014.009425</v>
+        <v>3044640275.653992</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08449719591328002</v>
+        <v>0.09183536092938972</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0474355714689496</v>
+        <v>0.04689095197395095</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2981117065.866025</v>
+        <v>3732336158.603248</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1134409361951005</v>
+        <v>0.1728285473981271</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0306103717173066</v>
+        <v>0.02945429867850153</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2530,13 +2530,13 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2414767322.973371</v>
+        <v>1652106969.086189</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1186441732455919</v>
+        <v>0.1549619451824243</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02536397827846483</v>
+        <v>0.03038761683482021</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5004226244.508992</v>
+        <v>4751057365.664411</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1174478035841001</v>
+        <v>0.0815210861755752</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02643086648225208</v>
+        <v>0.03201161274914478</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2235844648.176309</v>
+        <v>1434701494.627373</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1442968216054143</v>
+        <v>0.1493410571451839</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02102133395081697</v>
+        <v>0.02655681651728903</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4442171283.887716</v>
+        <v>3143310007.216505</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09008854708971074</v>
+        <v>0.1207492786524426</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03760685641245966</v>
+        <v>0.05245610280589866</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1402331095.460898</v>
+        <v>1892851229.087409</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1198487396913366</v>
+        <v>0.156701190895723</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03612720388053203</v>
+        <v>0.02977981117683317</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,19 +2664,19 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5360913829.495111</v>
+        <v>3681380699.109871</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1105853814505977</v>
+        <v>0.09651842646937765</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03665411306455751</v>
+        <v>0.02411442915119709</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4189108732.269949</v>
+        <v>5054971934.985461</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09520900327955439</v>
+        <v>0.1364026578722425</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02724737516863163</v>
+        <v>0.02721431421547627</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,19 +2720,19 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4391205176.602874</v>
+        <v>4961130720.951727</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1695907067962701</v>
+        <v>0.1640237850799026</v>
       </c>
       <c r="G82" t="n">
-        <v>0.0281014739090821</v>
+        <v>0.02828602231975407</v>
       </c>
       <c r="H82" t="b">
         <v>0</v>
@@ -2754,13 +2754,13 @@
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2389297784.447846</v>
+        <v>2402499319.156033</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1518132178089301</v>
+        <v>0.1251004913092014</v>
       </c>
       <c r="G83" t="n">
-        <v>0.0412578602481218</v>
+        <v>0.03864000836875681</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1681004666.092976</v>
+        <v>2054801562.496423</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09517620903889551</v>
+        <v>0.08407774207420923</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03275172877362097</v>
+        <v>0.04175621730267879</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,22 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3670280941.475656</v>
+        <v>3286665090.855443</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1143457308434212</v>
+        <v>0.1190322141154895</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04713489952815438</v>
+        <v>0.04300312837485976</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1841247224.173505</v>
+        <v>2035889368.123595</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1470357376980988</v>
+        <v>0.109360714628399</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01733748542125143</v>
+        <v>0.02213845381583544</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,22 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1015841832.390901</v>
+        <v>960272858.2547026</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1662580155012517</v>
+        <v>0.1312807288340464</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04343011138742307</v>
+        <v>0.03073799887505011</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2894,16 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2589883584.466446</v>
+        <v>3080980524.904747</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1397947840171016</v>
+        <v>0.1535401478457788</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03197381207795315</v>
+        <v>0.02898291614024055</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2476814381.950255</v>
+        <v>2144115214.817486</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1555109684481092</v>
+        <v>0.1575608218533491</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03755089669410865</v>
+        <v>0.03442624187957288</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1809569060.247383</v>
+        <v>1638522382.085332</v>
       </c>
       <c r="F90" t="n">
-        <v>0.103838065985697</v>
+        <v>0.1379670536460809</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03504286029320865</v>
+        <v>0.0524042396564812</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2978,13 +2978,13 @@
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1349036822.567313</v>
+        <v>1381761166.74209</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1722936725601233</v>
+        <v>0.1579131870227725</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05957674761363602</v>
+        <v>0.0415952805350211</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2863944985.953556</v>
+        <v>1859617325.168308</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09496564946027236</v>
+        <v>0.08167043474322087</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04236006110458974</v>
+        <v>0.04183805239383894</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4228394743.826229</v>
+        <v>4430948248.853134</v>
       </c>
       <c r="F93" t="n">
-        <v>0.0910275819612968</v>
+        <v>0.1126481348552613</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05363395091486459</v>
+        <v>0.04836009698842234</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
@@ -3062,13 +3062,13 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2404769044.485948</v>
+        <v>1667233022.651465</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1173463995222455</v>
+        <v>0.130457475795691</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03558057184485215</v>
+        <v>0.03528714701563029</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3090,13 +3090,13 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2912560298.113356</v>
+        <v>2457712270.892553</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1195906046930461</v>
+        <v>0.1083447720138571</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04551744793179708</v>
+        <v>0.04472390301998321</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2349297618.925974</v>
+        <v>1982818053.659253</v>
       </c>
       <c r="F96" t="n">
-        <v>0.09927671369155361</v>
+        <v>0.1349835211929527</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03389524175391135</v>
+        <v>0.04581263997305631</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5270161039.175028</v>
+        <v>5128166409.695179</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1423711727172434</v>
+        <v>0.1086911953973615</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02731894913936807</v>
+        <v>0.02452632616829982</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3744303911.543641</v>
+        <v>2719612504.027825</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1013302803400891</v>
+        <v>0.09475348075929282</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03129983197256396</v>
+        <v>0.02465603668832746</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3010289672.787654</v>
+        <v>2529481046.206266</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1124472376298509</v>
+        <v>0.1094021492237085</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03065190815524334</v>
+        <v>0.03360532057775165</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3042813303.249636</v>
+        <v>4037158021.844175</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1168935980879938</v>
+        <v>0.1255180214530642</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02400075139267382</v>
+        <v>0.0255451033769227</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2681847689.985115</v>
+        <v>3143002575.706628</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1980956122981106</v>
+        <v>0.1373423292065848</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03836359879107113</v>
+        <v>0.04202066187808261</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_32.xlsx
+++ b/output/fit_clients/fit_round_32.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1968808383.308815</v>
+        <v>2048925179.341275</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07052988544056631</v>
+        <v>0.1078706071741635</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03975624308511766</v>
+        <v>0.03334907161629817</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1943561989.725292</v>
+        <v>1692195638.890621</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1839027877579696</v>
+        <v>0.1174654667653982</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04522537973517054</v>
+        <v>0.03462393614752041</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -542,17 +571,24 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4667791094.26869</v>
+        <v>4770818818.996956</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1547664558125288</v>
+        <v>0.1412489969301675</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02790157420351835</v>
+        <v>0.02943061835805425</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32</v>
+      </c>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -564,23 +600,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2882508347.939079</v>
+        <v>3772831553.876695</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1009932313936537</v>
+        <v>0.06783879260888862</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04125710858060481</v>
+        <v>0.03080940447133389</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>16</v>
+      </c>
+      <c r="J5" t="n">
+        <v>32</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +635,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2650111369.163765</v>
+        <v>2382993772.693829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1470670520625935</v>
+        <v>0.1186834625189393</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05233440036937298</v>
+        <v>0.05643102056790448</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +670,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2323494556.95533</v>
+        <v>2675612989.541039</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08485307787774922</v>
+        <v>0.07531466049196187</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03972785104650623</v>
+        <v>0.04534101925501955</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +705,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3258345215.246549</v>
+        <v>3328974166.428169</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1449430446166444</v>
+        <v>0.1701823466437146</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02355509272177566</v>
+        <v>0.02676019642714128</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>8</v>
+      </c>
+      <c r="J8" t="n">
+        <v>29</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +740,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1966987247.594285</v>
+        <v>1443382745.129477</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1202499257727757</v>
+        <v>0.1882911168745304</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03341611355384919</v>
+        <v>0.03124155346409401</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +775,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4833200748.79607</v>
+        <v>4517771105.702167</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2149411451725777</v>
+        <v>0.2166204626743335</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03806304670041356</v>
+        <v>0.04969875330909489</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>30</v>
+      </c>
+      <c r="J10" t="n">
+        <v>32</v>
+      </c>
+      <c r="K10" t="n">
+        <v>238.6866054406634</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +812,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2714406719.376085</v>
+        <v>2934190141.949547</v>
       </c>
       <c r="F11" t="n">
-        <v>0.17391221077978</v>
+        <v>0.1213448375625366</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03108837423394988</v>
+        <v>0.04897658534260967</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>31</v>
+      </c>
+      <c r="K11" t="n">
+        <v>113.1649824487001</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +849,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2957489652.320272</v>
+        <v>2607099277.956558</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1984448268372549</v>
+        <v>0.1940906328849743</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05108331920550338</v>
+        <v>0.03646521095319859</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +884,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4507266574.065948</v>
+        <v>3365531710.45269</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07105409969529686</v>
+        <v>0.07744904914027798</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02185269973279082</v>
+        <v>0.02986591213320199</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>15</v>
+      </c>
+      <c r="J13" t="n">
+        <v>30</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +919,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2781291713.376141</v>
+        <v>3080560061.41944</v>
       </c>
       <c r="F14" t="n">
-        <v>0.145081781216128</v>
+        <v>0.1608653990711016</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0369219788591402</v>
+        <v>0.03163588109278828</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>5</v>
+      </c>
+      <c r="J14" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +954,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1427266695.363245</v>
+        <v>1420209258.589694</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06807046312342285</v>
+        <v>0.1091316034521567</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03611541863749287</v>
+        <v>0.04654085131380693</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +989,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2846833085.57362</v>
+        <v>2581994607.182189</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07509024676149008</v>
+        <v>0.07134668740239659</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04378868988810983</v>
+        <v>0.04117332619758986</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -906,17 +1030,24 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3695492617.348764</v>
+        <v>3921100656.860163</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1336025989312971</v>
+        <v>0.1263553524367557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04657874646420253</v>
+        <v>0.03784355695033619</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>15</v>
+      </c>
+      <c r="J17" t="n">
+        <v>32</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,23 +1059,30 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2967380847.111995</v>
+        <v>2931721328.721875</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1132571894241153</v>
+        <v>0.1151821327321249</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02502515251395719</v>
+        <v>0.0285206266178115</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
       </c>
+      <c r="I18" t="n">
+        <v>7</v>
+      </c>
+      <c r="J18" t="n">
+        <v>24</v>
+      </c>
+      <c r="K18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -956,23 +1094,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1221263547.172467</v>
+        <v>1130345621.909142</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1192876703266236</v>
+        <v>0.1181898141248404</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01809401471423622</v>
+        <v>0.01808965021347447</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1129,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2557736373.712734</v>
+        <v>2043728101.539102</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1433707657852915</v>
+        <v>0.1431664247420125</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02275021222745584</v>
+        <v>0.02111239873114307</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1170,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1906079432.333282</v>
+        <v>2475903953.193697</v>
       </c>
       <c r="F21" t="n">
-        <v>0.07139393183653543</v>
+        <v>0.063106922633041</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04227571393308396</v>
+        <v>0.0348691930623016</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1199,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3010811001.604315</v>
+        <v>3402559426.227215</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1005029181530552</v>
+        <v>0.1011327197140653</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05378484988460219</v>
+        <v>0.04925834528162295</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>9</v>
+      </c>
+      <c r="J22" t="n">
+        <v>28</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1240,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1220580073.395081</v>
+        <v>961609938.1646619</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1384700057465274</v>
+        <v>0.1617935023106813</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05039404459424261</v>
+        <v>0.04265559874430485</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1269,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2902438881.015005</v>
+        <v>2813063119.213857</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1231780340178542</v>
+        <v>0.09822837723533027</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02453497772115388</v>
+        <v>0.03198718613600368</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>30</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1310,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1391094401.066797</v>
+        <v>1212784253.796361</v>
       </c>
       <c r="F25" t="n">
-        <v>0.093757905317154</v>
+        <v>0.07656898291630128</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02796056893965717</v>
+        <v>0.03043358774315488</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1339,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1078115605.348632</v>
+        <v>1125624210.279276</v>
       </c>
       <c r="F26" t="n">
-        <v>0.0939411464400552</v>
+        <v>0.1133420333302618</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03132820278029814</v>
+        <v>0.0274012351091182</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1374,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3638753905.661957</v>
+        <v>3432233343.568593</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1500153211241894</v>
+        <v>0.1185156978980339</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02417898468128988</v>
+        <v>0.02438809522138851</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>12</v>
+      </c>
+      <c r="J27" t="n">
+        <v>32</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1409,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2743812460.069846</v>
+        <v>2707514891.456255</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1448782792047769</v>
+        <v>0.09232064707444604</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03151381265168769</v>
+        <v>0.03872977077246372</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>8</v>
+      </c>
+      <c r="J28" t="n">
+        <v>28</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,23 +1444,30 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5115057088.833483</v>
+        <v>4873182519.267781</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1480958693456619</v>
+        <v>0.1384936656954518</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04589099959583103</v>
+        <v>0.03243354123861603</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
       </c>
+      <c r="I29" t="n">
+        <v>29</v>
+      </c>
+      <c r="J29" t="n">
+        <v>32</v>
+      </c>
+      <c r="K29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1270,17 +1485,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1522036404.032981</v>
+        <v>1739586647.394095</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1091741572413057</v>
+        <v>0.1118537654438187</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03199812935330932</v>
+        <v>0.03444954490392846</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1514,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1256936354.468647</v>
+        <v>1120856654.02086</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07716227531473181</v>
+        <v>0.09249899122564986</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0330292624569311</v>
+        <v>0.03791340566508659</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1549,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1804122794.606397</v>
+        <v>1392040774.040735</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1184172927947525</v>
+        <v>0.1009581586338028</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02436810323563389</v>
+        <v>0.0368406327885906</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1584,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2162218657.058451</v>
+        <v>2873271768.450644</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1688229603060853</v>
+        <v>0.1833176740669995</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05770882946033071</v>
+        <v>0.05318419783361998</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1382,17 +1625,24 @@
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1309633066.786849</v>
+        <v>1280090097.587688</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1143817000258449</v>
+        <v>0.1018201123074739</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02019937945649555</v>
+        <v>0.01903356036196304</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1654,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>888024133.8678133</v>
+        <v>825574162.4551771</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09330023579557024</v>
+        <v>0.0723889727310732</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02752686199575782</v>
+        <v>0.0347259419301777</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1689,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>1994598095.423143</v>
+        <v>2274442089.241361</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1776493633280809</v>
+        <v>0.1648978782372497</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02351966622540118</v>
+        <v>0.01975670899672733</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>2</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1724,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2827037744.137767</v>
+        <v>2404969550.599654</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07599616432546535</v>
+        <v>0.09900435687254966</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03607746549381628</v>
+        <v>0.0291181780816255</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1759,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2142927002.972233</v>
+        <v>2055421926.703985</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08994341040658593</v>
+        <v>0.1193288610936574</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03495914605690709</v>
+        <v>0.02721234245846258</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1794,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2041571265.974245</v>
+        <v>2014449601.575675</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1516465212345659</v>
+        <v>0.1822273326920355</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03071231275764367</v>
+        <v>0.0281474082319363</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1835,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1437657990.605378</v>
+        <v>1374667713.251413</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1211215361150696</v>
+        <v>0.1523429774806077</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04672144427874997</v>
+        <v>0.03797358077351327</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1864,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2341194974.089002</v>
+        <v>2795085020.980208</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1009201138579393</v>
+        <v>0.1056231236763355</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04140028551912202</v>
+        <v>0.03440889365528453</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1899,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4050104648.497779</v>
+        <v>4062732937.819386</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08167136143399918</v>
+        <v>0.08015835822697541</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02890311022738767</v>
+        <v>0.0414845370896775</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11</v>
+      </c>
+      <c r="J42" t="n">
+        <v>31</v>
+      </c>
+      <c r="K42" t="n">
+        <v>197.6821701221447</v>
       </c>
     </row>
     <row r="43">
@@ -1634,17 +1942,24 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2012239778.212946</v>
+        <v>2176013876.935662</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1719490634377859</v>
+        <v>0.1764109362910164</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02419913073659324</v>
+        <v>0.02253724706325635</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1971,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1543618279.450914</v>
+        <v>1454999848.026471</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07368176656387235</v>
+        <v>0.1007005070107335</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03209179284087704</v>
+        <v>0.02486978800096792</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2006,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1809583298.540371</v>
+        <v>1936895886.1896</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1343779764137349</v>
+        <v>0.1450168523663245</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04753747613252608</v>
+        <v>0.04334723473224978</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2047,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5568713610.286951</v>
+        <v>5142108861.923873</v>
       </c>
       <c r="F46" t="n">
-        <v>0.148302784119725</v>
+        <v>0.1778591469398275</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05153274077248056</v>
+        <v>0.04725483179264706</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>19</v>
+      </c>
+      <c r="J46" t="n">
+        <v>32</v>
+      </c>
+      <c r="K46" t="n">
+        <v>214.6907422269431</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2078,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3669426093.885925</v>
+        <v>4759707579.897994</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1419811875552748</v>
+        <v>0.1772795272407145</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03645690821390672</v>
+        <v>0.0585170920450659</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>13</v>
+      </c>
+      <c r="J47" t="n">
+        <v>32</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1774,17 +2119,24 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3760722307.677959</v>
+        <v>4310452866.88854</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08670897322040845</v>
+        <v>0.1067563589225267</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03553934296475046</v>
+        <v>0.02879779262673426</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>10</v>
+      </c>
+      <c r="J48" t="n">
+        <v>32</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2148,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1933161202.964482</v>
+        <v>1837373105.508189</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1584474982404884</v>
+        <v>0.1669069005310997</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03037474487222256</v>
+        <v>0.02863615320472926</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2183,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3520153070.732366</v>
+        <v>4208307768.306396</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1642614159931967</v>
+        <v>0.1406991209246183</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03461110495817363</v>
+        <v>0.0432188742370742</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11</v>
+      </c>
+      <c r="J50" t="n">
+        <v>31</v>
+      </c>
+      <c r="K50" t="n">
+        <v>212.9148023033165</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2220,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1075025170.254265</v>
+        <v>1187201184.210295</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1510724753581161</v>
+        <v>0.1452502033466511</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04061742253140044</v>
+        <v>0.05372166828269058</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,16 +2261,25 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4525886412.028102</v>
+        <v>4965425793.532265</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09858417464219101</v>
+        <v>0.1188119595726615</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05888115603947403</v>
+        <v>0.0566984180656429</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>24</v>
+      </c>
+      <c r="J52" t="n">
+        <v>32</v>
+      </c>
+      <c r="K52" t="n">
+        <v>230.1913791531898</v>
       </c>
     </row>
     <row r="53">
@@ -1908,22 +2292,31 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2725597225.815117</v>
+        <v>3160595823.524515</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1662986742343231</v>
+        <v>0.1353913927349098</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03445686292837113</v>
+        <v>0.02413220257182764</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
+      </c>
+      <c r="I53" t="n">
+        <v>5</v>
+      </c>
+      <c r="J53" t="n">
+        <v>31</v>
+      </c>
+      <c r="K53" t="n">
+        <v>112.1183007563527</v>
       </c>
     </row>
     <row r="54">
@@ -1936,23 +2329,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4918861825.75843</v>
+        <v>3171011036.339089</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1369825682235959</v>
+        <v>0.1384914919393143</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03359549028202108</v>
+        <v>0.03323922817210085</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>14</v>
+      </c>
+      <c r="J54" t="n">
+        <v>30</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1964,22 +2364,31 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3742684038.037726</v>
+        <v>3378310718.737978</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1595469210318635</v>
+        <v>0.1593085597510498</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02243066097918934</v>
+        <v>0.02488934225310417</v>
       </c>
       <c r="H55" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I55" t="n">
+        <v>15</v>
+      </c>
+      <c r="J55" t="n">
+        <v>31</v>
+      </c>
+      <c r="K55" t="n">
+        <v>120.1129929691726</v>
       </c>
     </row>
     <row r="56">
@@ -1998,17 +2407,24 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1630278203.311625</v>
+        <v>1345675053.779612</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1438536554193171</v>
+        <v>0.1604483078988675</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03909089316413161</v>
+        <v>0.04548331872020858</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2436,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4503415218.54696</v>
+        <v>3185927408.092155</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1351133576826886</v>
+        <v>0.1802870157706359</v>
       </c>
       <c r="G57" t="n">
-        <v>0.026189142589658</v>
+        <v>0.01810969183962424</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>12</v>
+      </c>
+      <c r="J57" t="n">
+        <v>31</v>
+      </c>
+      <c r="K57" t="n">
+        <v>116.7757594453368</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1834323615.31566</v>
+        <v>1309745617.78392</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1455763021316099</v>
+        <v>0.1780731565594905</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03907298609339097</v>
+        <v>0.03109332735052439</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2082,16 +2514,25 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>5240510346.776677</v>
+        <v>5321080201.921407</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1067027095265425</v>
+        <v>0.09177711349197436</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04590269922136917</v>
+        <v>0.04056711778713577</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>15</v>
+      </c>
+      <c r="J59" t="n">
+        <v>31</v>
+      </c>
+      <c r="K59" t="n">
+        <v>186.720723121961</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2952264360.098538</v>
+        <v>3410307713.137907</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1871687316842854</v>
+        <v>0.1563083175326547</v>
       </c>
       <c r="G60" t="n">
-        <v>0.03206869859761183</v>
+        <v>0.03014300301614715</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>5</v>
+      </c>
+      <c r="J60" t="n">
+        <v>30</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3193897186.432203</v>
+        <v>3249267464.280191</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1763247243676207</v>
+        <v>0.1544052727136554</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03106470780391977</v>
+        <v>0.02857430565648903</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
+      <c r="J61" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2621,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1606053293.867955</v>
+        <v>1658835633.219958</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1675529963772583</v>
+        <v>0.1606539824540994</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03037228834093754</v>
+        <v>0.03142737285794219</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2650,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5434645970.625873</v>
+        <v>4800499365.437942</v>
       </c>
       <c r="F63" t="n">
-        <v>0.0905995001480227</v>
+        <v>0.06701898439069123</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03728142212418208</v>
+        <v>0.02985440316722868</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>15</v>
+      </c>
+      <c r="J63" t="n">
+        <v>32</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,16 +2691,25 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4899873847.638099</v>
+        <v>5399988252.58021</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1333275483255689</v>
+        <v>0.1763579406662531</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03170302914195425</v>
+        <v>0.03518070406818428</v>
       </c>
       <c r="H64" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>16</v>
+      </c>
+      <c r="J64" t="n">
+        <v>31</v>
+      </c>
+      <c r="K64" t="n">
+        <v>200.9215541658591</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2722,31 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4020810693.68826</v>
+        <v>4900560465.478004</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1497173659168848</v>
+        <v>0.1062491766794363</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02738998027286782</v>
+        <v>0.02505527885107987</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
+      </c>
+      <c r="I65" t="n">
+        <v>26</v>
+      </c>
+      <c r="J65" t="n">
+        <v>32</v>
+      </c>
+      <c r="K65" t="n">
+        <v>215.1371525257128</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2759,31 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4368452222.035732</v>
+        <v>4317712294.233085</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1611429836531722</v>
+        <v>0.1273282142198846</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03466345556363714</v>
+        <v>0.03525498435833792</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>16</v>
+      </c>
+      <c r="J66" t="n">
+        <v>31</v>
+      </c>
+      <c r="K66" t="n">
+        <v>197.385536713231</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3260453486.912228</v>
+        <v>2747938324.358723</v>
       </c>
       <c r="F67" t="n">
-        <v>0.07450042061981901</v>
+        <v>0.06296361038535388</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03747532412792428</v>
+        <v>0.04026220996314019</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
+      <c r="J67" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4707741424.481493</v>
+        <v>4163279467.198514</v>
       </c>
       <c r="F68" t="n">
-        <v>0.148703238669669</v>
+        <v>0.1583584097202257</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03584903221818522</v>
+        <v>0.0441531154890347</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>16</v>
+      </c>
+      <c r="J68" t="n">
+        <v>31</v>
+      </c>
+      <c r="K68" t="n">
+        <v>199.7399259893099</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1560730312.129634</v>
+        <v>2234136498.230781</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1375785668675819</v>
+        <v>0.128362800703373</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04330451591942609</v>
+        <v>0.05043210284728244</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2390,17 +2909,24 @@
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3413226873.94164</v>
+        <v>2274106859.987983</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06987954283654048</v>
+        <v>0.07768114259455178</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04000449690310922</v>
+        <v>0.03827997325042996</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>3</v>
+      </c>
+      <c r="J70" t="n">
+        <v>27</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2938,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5012332946.724513</v>
+        <v>5241330121.481483</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1639489722684095</v>
+        <v>0.147973558275018</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03220388098188593</v>
+        <v>0.02682474216422655</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
+      </c>
+      <c r="I71" t="n">
+        <v>26</v>
+      </c>
+      <c r="J71" t="n">
+        <v>32</v>
+      </c>
+      <c r="K71" t="n">
+        <v>216.2256852047356</v>
       </c>
     </row>
     <row r="72">
@@ -2440,23 +2975,30 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2036265458.874825</v>
+        <v>2098346128.007189</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08835595820075981</v>
+        <v>0.06800069171030043</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03501552979650231</v>
+        <v>0.04226546743008465</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3010,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3044640275.653992</v>
+        <v>3305741959.099457</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09183536092938972</v>
+        <v>0.07104788883429058</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04689095197395095</v>
+        <v>0.03953959940897409</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>2</v>
+      </c>
+      <c r="J73" t="n">
+        <v>30</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,23 +3045,30 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3732336158.603248</v>
+        <v>3272514087.771762</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1728285473981271</v>
+        <v>0.1369583307619829</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02945429867850153</v>
+        <v>0.03073944409990852</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>9</v>
+      </c>
+      <c r="J74" t="n">
+        <v>29</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2530,17 +3086,24 @@
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1652106969.086189</v>
+        <v>2467373279.517019</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1549619451824243</v>
+        <v>0.1369841725679823</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03038761683482021</v>
+        <v>0.0232086959704779</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4751057365.664411</v>
+        <v>4186341057.914649</v>
       </c>
       <c r="F76" t="n">
-        <v>0.0815210861755752</v>
+        <v>0.124993333050932</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03201161274914478</v>
+        <v>0.03138790493685873</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>15</v>
+      </c>
+      <c r="J76" t="n">
+        <v>31</v>
+      </c>
+      <c r="K76" t="n">
+        <v>170.507599848273</v>
       </c>
     </row>
     <row r="77">
@@ -2580,23 +3152,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1434701494.627373</v>
+        <v>2300856288.229735</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1493410571451839</v>
+        <v>0.1313516879694527</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02655681651728903</v>
+        <v>0.02576943017966253</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3187,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3143310007.216505</v>
+        <v>3790454033.676325</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1207492786524426</v>
+        <v>0.0946631962032581</v>
       </c>
       <c r="G78" t="n">
-        <v>0.05245610280589866</v>
+        <v>0.04327142534494934</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I78" t="n">
+        <v>13</v>
+      </c>
+      <c r="J78" t="n">
+        <v>31</v>
+      </c>
+      <c r="K78" t="n">
+        <v>175.0937037206848</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3224,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1892851229.087409</v>
+        <v>1732205569.892236</v>
       </c>
       <c r="F79" t="n">
-        <v>0.156701190895723</v>
+        <v>0.1263608401942939</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02977981117683317</v>
+        <v>0.03257844294582327</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3259,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>3681380699.109871</v>
+        <v>3426882592.203856</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09651842646937765</v>
+        <v>0.103206156525274</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02411442915119709</v>
+        <v>0.03246426406185553</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>15</v>
+      </c>
+      <c r="J80" t="n">
+        <v>32</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5054971934.985461</v>
+        <v>3718398601.583585</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1364026578722425</v>
+        <v>0.09072595460579465</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02721431421547627</v>
+        <v>0.0298084230337365</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>13</v>
+      </c>
+      <c r="J81" t="n">
+        <v>32</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4961130720.951727</v>
+        <v>3675081026.773052</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1640237850799026</v>
+        <v>0.174667579533811</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02828602231975407</v>
+        <v>0.02227140704576536</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>16</v>
+      </c>
+      <c r="J82" t="n">
+        <v>32</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2402499319.156033</v>
+        <v>1655587999.836335</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1251004913092014</v>
+        <v>0.09651029723007128</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03864000836875681</v>
+        <v>0.03504283622421763</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2054801562.496423</v>
+        <v>1817971257.900886</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08407774207420923</v>
+        <v>0.09391772463526175</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04175621730267879</v>
+        <v>0.04797346056698605</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3434,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3286665090.855443</v>
+        <v>2497339374.277728</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1190322141154895</v>
+        <v>0.1479883087533918</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04300312837485976</v>
+        <v>0.04590705763850213</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
+      </c>
+      <c r="I85" t="n">
+        <v>6</v>
+      </c>
+      <c r="J85" t="n">
+        <v>31</v>
+      </c>
+      <c r="K85" t="n">
+        <v>80.26948911243366</v>
       </c>
     </row>
     <row r="86">
@@ -2832,23 +3471,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2035889368.123595</v>
+        <v>1723149351.481598</v>
       </c>
       <c r="F86" t="n">
-        <v>0.109360714628399</v>
+        <v>0.129152530470767</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02213845381583544</v>
+        <v>0.02518992303726968</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3506,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>960272858.2547026</v>
+        <v>939511390.9405984</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1312807288340464</v>
+        <v>0.1145216937176616</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03073799887505011</v>
+        <v>0.03292722271380229</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3541,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3080980524.904747</v>
+        <v>3008139183.772139</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1535401478457788</v>
+        <v>0.1261423082622455</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02898291614024055</v>
+        <v>0.0357948482998196</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>3</v>
+      </c>
+      <c r="J88" t="n">
+        <v>25</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2144115214.817486</v>
+        <v>3515260852.29871</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1575608218533491</v>
+        <v>0.1138590360982561</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03442624187957288</v>
+        <v>0.03514284275579242</v>
       </c>
       <c r="H89" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>3</v>
+      </c>
+      <c r="J89" t="n">
+        <v>32</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1638522382.085332</v>
+        <v>1835403534.120486</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1379670536460809</v>
+        <v>0.08342068440695703</v>
       </c>
       <c r="G90" t="n">
-        <v>0.0524042396564812</v>
+        <v>0.05650947325481097</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1381761166.74209</v>
+        <v>1486763262.427402</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1579131870227725</v>
+        <v>0.1911327841804149</v>
       </c>
       <c r="G91" t="n">
-        <v>0.0415952805350211</v>
+        <v>0.04052137953159322</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1859617325.168308</v>
+        <v>2829656280.497352</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08167043474322087</v>
+        <v>0.07289898193686427</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04183805239383894</v>
+        <v>0.03615576545639974</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4430948248.853134</v>
+        <v>4716577423.61907</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1126481348552613</v>
+        <v>0.1322709179530917</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04836009698842234</v>
+        <v>0.03434567241707194</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>14</v>
+      </c>
+      <c r="J93" t="n">
+        <v>31</v>
+      </c>
+      <c r="K93" t="n">
+        <v>198.0759557282824</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1667233022.651465</v>
+        <v>1761329467.172487</v>
       </c>
       <c r="F94" t="n">
-        <v>0.130457475795691</v>
+        <v>0.1432860996431558</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03528714701563029</v>
+        <v>0.0288014743012796</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2457712270.892553</v>
+        <v>2477586655.744468</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1083447720138571</v>
+        <v>0.101192466990776</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04472390301998321</v>
+        <v>0.04016844288894028</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>14</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3823,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1982818053.659253</v>
+        <v>1757212465.717113</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1349835211929527</v>
+        <v>0.0924771246897489</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04581263997305631</v>
+        <v>0.02984132074026117</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3858,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5128166409.695179</v>
+        <v>4073707180.373547</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1086911953973615</v>
+        <v>0.1254423504100647</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02452632616829982</v>
+        <v>0.0203896254156777</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>16</v>
+      </c>
+      <c r="J97" t="n">
+        <v>31</v>
+      </c>
+      <c r="K97" t="n">
+        <v>198.2623782070506</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3895,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2719612504.027825</v>
+        <v>3636220060.348043</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09475348075929282</v>
+        <v>0.1291239533084853</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02465603668832746</v>
+        <v>0.02290570296189744</v>
       </c>
       <c r="H98" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>7</v>
+      </c>
+      <c r="J98" t="n">
+        <v>32</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3202,17 +3936,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2529481046.206266</v>
+        <v>2633881626.510089</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1094021492237085</v>
+        <v>0.09024216193676519</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03360532057775165</v>
+        <v>0.03079772847432919</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3965,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4037158021.844175</v>
+        <v>4752893690.415919</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1255180214530642</v>
+        <v>0.167748998279193</v>
       </c>
       <c r="G100" t="n">
-        <v>0.0255451033769227</v>
+        <v>0.02184993020715655</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>14</v>
+      </c>
+      <c r="J100" t="n">
+        <v>32</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3143002575.706628</v>
+        <v>3412748749.274943</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1373423292065848</v>
+        <v>0.1602358121379945</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04202066187808261</v>
+        <v>0.05394055989423646</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>32</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
